--- a/execution-summary/artifact/script/execution-summary.xlsx
+++ b/execution-summary/artifact/script/execution-summary.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\execution-dashboard\execution-summary\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ADB132-340F-4389-89E1-69BB482BF78E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{89ADB132-340F-4389-89E1-69BB482BF78E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15990" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="minio-prep" sheetId="5" r:id="rId2"/>
-    <sheet name="update-dashboard" sheetId="2" r:id="rId3"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="minio-prep" r:id="rId2" sheetId="5"/>
+    <sheet name="update-dashboard" r:id="rId3" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$42</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -30,7 +30,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -40,7 +40,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -48,14 +48,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="757">
   <si>
     <t>description</t>
   </si>
@@ -2221,12 +2222,163 @@
   <si>
     <t>21</t>
   </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2317,8 +2469,115 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2359,6 +2618,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2439,221 +2834,272 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="73">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="10" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="11" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="5" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="4" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="4" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="3" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="3" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="6" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="6" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="6" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="7" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="7" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="7" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2777,7 +3223,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2802,10 +3248,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2840,7 +3286,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2875,7 +3321,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2969,21 +3415,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3000,7 +3446,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3052,26 +3498,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3151,25 +3597,28 @@
         <v>609</v>
       </c>
       <c r="AA1" t="s">
+        <v>707</v>
+      </c>
+      <c r="AB1" t="s">
         <v>52</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>405</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>363</v>
       </c>
@@ -3249,25 +3698,28 @@
         <v>625</v>
       </c>
       <c r="AA2" t="s">
+        <v>712</v>
+      </c>
+      <c r="AB2" t="s">
         <v>94</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>167</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>172</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>179</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>423</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>444</v>
       </c>
@@ -3338,25 +3790,28 @@
         <v>626</v>
       </c>
       <c r="AA3" t="s">
+        <v>713</v>
+      </c>
+      <c r="AB3" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>168</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>356</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>180</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>464</v>
       </c>
@@ -3424,25 +3879,28 @@
         <v>627</v>
       </c>
       <c r="AA4" t="s">
+        <v>714</v>
+      </c>
+      <c r="AB4" t="s">
         <v>628</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>169</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>174</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>180</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>415</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>535</v>
       </c>
@@ -3498,25 +3956,28 @@
         <v>351</v>
       </c>
       <c r="AA5" t="s">
+        <v>715</v>
+      </c>
+      <c r="AB5" t="s">
         <v>629</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>170</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>643</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>181</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>416</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3569,25 +4030,28 @@
         <v>353</v>
       </c>
       <c r="AA6" t="s">
+        <v>716</v>
+      </c>
+      <c r="AB6" t="s">
         <v>96</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>434</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>175</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>182</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>417</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -3631,25 +4095,28 @@
         <v>352</v>
       </c>
       <c r="AA7" t="s">
+        <v>717</v>
+      </c>
+      <c r="AB7" t="s">
         <v>97</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>435</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>176</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>183</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>418</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3693,25 +4160,28 @@
         <v>354</v>
       </c>
       <c r="AA8" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB8" t="s">
         <v>98</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>171</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>177</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>184</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>419</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3752,19 +4222,22 @@
         <v>355</v>
       </c>
       <c r="AA9" t="s">
+        <v>719</v>
+      </c>
+      <c r="AB9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>178</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>185</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3796,19 +4269,22 @@
         <v>397</v>
       </c>
       <c r="AA10" t="s">
+        <v>720</v>
+      </c>
+      <c r="AB10" t="s">
         <v>252</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>644</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>186</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>342</v>
       </c>
@@ -3834,19 +4310,22 @@
         <v>91</v>
       </c>
       <c r="S11" t="s">
-        <v>244</v>
+        <v>711</v>
       </c>
       <c r="AA11" t="s">
+        <v>721</v>
+      </c>
+      <c r="AB11" t="s">
         <v>253</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>254</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3872,19 +4351,22 @@
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AA12" t="s">
+        <v>722</v>
+      </c>
+      <c r="AB12" t="s">
         <v>99</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>187</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>328</v>
       </c>
@@ -3910,19 +4392,22 @@
         <v>92</v>
       </c>
       <c r="S13" t="s">
-        <v>622</v>
+        <v>245</v>
       </c>
       <c r="AA13" t="s">
+        <v>723</v>
+      </c>
+      <c r="AB13" t="s">
         <v>321</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>188</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3945,19 +4430,22 @@
         <v>93</v>
       </c>
       <c r="S14" t="s">
-        <v>250</v>
+        <v>622</v>
       </c>
       <c r="AA14" t="s">
+        <v>724</v>
+      </c>
+      <c r="AB14" t="s">
         <v>100</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>189</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>495</v>
       </c>
@@ -3980,19 +4468,22 @@
         <v>479</v>
       </c>
       <c r="S15" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AA15" t="s">
+        <v>725</v>
+      </c>
+      <c r="AB15" t="s">
         <v>630</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>190</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>465</v>
       </c>
@@ -4015,19 +4506,22 @@
         <v>480</v>
       </c>
       <c r="S16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA16" t="s">
+        <v>726</v>
+      </c>
+      <c r="AB16" t="s">
         <v>631</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>191</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -4044,19 +4538,22 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA17" t="s">
+        <v>727</v>
+      </c>
+      <c r="AB17" t="s">
         <v>101</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>455</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -4072,14 +4569,20 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
+      <c r="S18" t="s">
+        <v>248</v>
+      </c>
       <c r="AA18" t="s">
+        <v>728</v>
+      </c>
+      <c r="AB18" t="s">
         <v>73</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>235</v>
       </c>
@@ -4093,13 +4596,16 @@
         <v>451</v>
       </c>
       <c r="AA19" t="s">
+        <v>729</v>
+      </c>
+      <c r="AB19" t="s">
         <v>481</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -4113,13 +4619,16 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s">
+        <v>730</v>
+      </c>
+      <c r="AB20" t="s">
         <v>102</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>387</v>
       </c>
@@ -4133,13 +4642,16 @@
         <v>82</v>
       </c>
       <c r="AA21" t="s">
+        <v>731</v>
+      </c>
+      <c r="AB21" t="s">
         <v>103</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>403</v>
       </c>
@@ -4153,13 +4665,16 @@
         <v>620</v>
       </c>
       <c r="AA22" t="s">
+        <v>732</v>
+      </c>
+      <c r="AB22" t="s">
         <v>104</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>404</v>
       </c>
@@ -4173,13 +4688,16 @@
         <v>458</v>
       </c>
       <c r="AA23" t="s">
+        <v>733</v>
+      </c>
+      <c r="AB23" t="s">
         <v>105</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>349</v>
       </c>
@@ -4193,18 +4711,21 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
+        <v>734</v>
+      </c>
+      <c r="AB24" t="s">
         <v>482</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>388</v>
       </c>
       <c r="F25" t="s">
-        <v>525</v>
+        <v>708</v>
       </c>
       <c r="H25" t="s">
         <v>274</v>
@@ -4213,957 +4734,1041 @@
         <v>383</v>
       </c>
       <c r="AA25" t="s">
+        <v>735</v>
+      </c>
+      <c r="AB25" t="s">
         <v>106</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>609</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>525</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>512</v>
+        <v>710</v>
       </c>
       <c r="AA26" t="s">
+        <v>736</v>
+      </c>
+      <c r="AB26" t="s">
         <v>529</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>707</v>
       </c>
       <c r="F27" t="s">
-        <v>316</v>
+        <v>60</v>
       </c>
       <c r="H27" t="s">
         <v>277</v>
       </c>
       <c r="L27" t="s">
-        <v>83</v>
+        <v>512</v>
       </c>
       <c r="AA27" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB27" t="s">
         <v>107</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>316</v>
       </c>
       <c r="H28" t="s">
         <v>261</v>
       </c>
       <c r="L28" t="s">
-        <v>425</v>
+        <v>83</v>
       </c>
       <c r="AA28" t="s">
+        <v>738</v>
+      </c>
+      <c r="AB28" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>438</v>
+        <v>61</v>
       </c>
       <c r="H29" t="s">
         <v>278</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>425</v>
       </c>
       <c r="AA29" t="s">
+        <v>739</v>
+      </c>
+      <c r="AB29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>221</v>
+        <v>438</v>
       </c>
       <c r="H30" t="s">
         <v>279</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="s">
+        <v>740</v>
+      </c>
+      <c r="AB30" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
-        <v>405</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
       </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
       <c r="AA31" t="s">
+        <v>741</v>
+      </c>
+      <c r="AB31" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>405</v>
       </c>
       <c r="F32" t="s">
-        <v>456</v>
+        <v>222</v>
       </c>
       <c r="H32" t="s">
         <v>270</v>
       </c>
       <c r="AA32" t="s">
+        <v>742</v>
+      </c>
+      <c r="AB32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="33">
+      <c r="A33" t="s">
+        <v>223</v>
+      </c>
       <c r="F33" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H33" t="s">
         <v>280</v>
       </c>
       <c r="AA33" t="s">
+        <v>743</v>
+      </c>
+      <c r="AB33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="F34" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="H34" t="s">
         <v>497</v>
       </c>
       <c r="AA34" t="s">
+        <v>744</v>
+      </c>
+      <c r="AB34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="F35" t="s">
-        <v>62</v>
+        <v>407</v>
       </c>
       <c r="H35" t="s">
         <v>255</v>
       </c>
       <c r="AA35" t="s">
+        <v>745</v>
+      </c>
+      <c r="AB35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="F36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H36" t="s">
         <v>325</v>
       </c>
       <c r="AA36" t="s">
+        <v>746</v>
+      </c>
+      <c r="AB36" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="F37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H37" t="s">
         <v>302</v>
       </c>
       <c r="AA37" t="s">
+        <v>747</v>
+      </c>
+      <c r="AB37" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="F38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
         <v>256</v>
       </c>
       <c r="AA38" t="s">
+        <v>748</v>
+      </c>
+      <c r="AB38" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="F39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H39" t="s">
         <v>303</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="F40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H40" t="s">
         <v>262</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="F41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="F42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="43">
+      <c r="F43" t="s">
+        <v>69</v>
+      </c>
       <c r="H43" t="s">
         <v>526</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="44">
+      <c r="F44" t="s">
+        <v>709</v>
+      </c>
       <c r="H44" t="s">
         <v>284</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="H45" t="s">
         <v>295</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="H46" t="s">
         <v>296</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="H47" t="s">
         <v>338</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="H48" t="s">
         <v>337</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="H50" t="s">
         <v>315</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="H51" t="s">
         <v>334</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="H52" t="s">
         <v>360</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="H53" t="s">
         <v>297</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="H54" t="s">
         <v>348</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="H55" t="s">
         <v>326</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="H56" t="s">
         <v>263</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="H57" t="s">
         <v>287</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="H58" t="s">
         <v>288</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="59" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="H59" t="s">
         <v>527</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="60" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="H60" t="s">
         <v>289</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="H61" t="s">
         <v>298</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="62" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="H62" t="s">
         <v>307</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="63" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="H63" t="s">
         <v>332</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="H64" t="s">
         <v>304</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="H65" t="s">
         <v>305</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="H66" t="s">
         <v>361</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="H67" t="s">
         <v>362</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="H68" t="s">
         <v>340</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="H69" t="s">
         <v>308</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="H70" t="s">
         <v>264</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="71" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="H71" t="s">
         <v>513</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="72" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="H72" t="s">
         <v>309</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="H73" t="s">
         <v>401</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="H74" t="s">
         <v>299</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="75" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="H75" t="s">
         <v>402</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="H76" t="s">
         <v>257</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="H77" t="s">
         <v>498</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="H78" t="s">
         <v>339</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="H79" t="s">
         <v>275</v>
       </c>
-      <c r="AA79" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB79" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="H80" t="s">
         <v>281</v>
       </c>
-      <c r="AA80" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="H81" t="s">
         <v>286</v>
       </c>
-      <c r="AA81" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB81" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="H82" t="s">
         <v>420</v>
       </c>
-      <c r="AA82" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB82" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="H83" t="s">
         <v>327</v>
       </c>
-      <c r="AA83" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB83" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="H84" t="s">
         <v>265</v>
       </c>
-      <c r="AA84" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB84" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="H85" t="s">
         <v>276</v>
       </c>
-      <c r="AA85" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB85" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="H86" t="s">
         <v>282</v>
       </c>
-      <c r="AA86" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB86" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="H87" t="s">
         <v>271</v>
       </c>
-      <c r="AA87" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB87" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="H88" t="s">
         <v>515</v>
       </c>
-      <c r="AA88" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB88" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="H89" t="s">
         <v>266</v>
       </c>
-      <c r="AA89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>283</v>
       </c>
-      <c r="AA90" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB90" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>267</v>
       </c>
-      <c r="AA91" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB91" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>268</v>
       </c>
-      <c r="AA92" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB92" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>300</v>
       </c>
-      <c r="AA93" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB93" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>306</v>
       </c>
-      <c r="AA94" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB94" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>290</v>
       </c>
-      <c r="AA95" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>335</v>
       </c>
-      <c r="AA96" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB96" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>272</v>
       </c>
-      <c r="AA97" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB97" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>273</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA113" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA114" t="s">
+    <row r="114">
+      <c r="AB114" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA141" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="145" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>166</v>
       </c>
     </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>756</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2076BC-4531-47D8-B1D2-50746C02CAED}">
-  <dimension ref="A1:O310"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2076BC-4531-47D8-B1D2-50746C02CAED}">
+  <dimension ref="A1:P310"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.25" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.5" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31" style="9" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="16.25" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="38.75" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="18.625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="44.25" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="29.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="26.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="9" width="31.0" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="9" width="16.25" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="22" width="38.75" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -5194,7 +5799,7 @@
       <c r="N1" s="50"/>
       <c r="O1" s="51"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>689</v>
       </c>
@@ -5215,7 +5820,7 @@
       <c r="N2" s="55"/>
       <c r="O2" s="55"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
       <c r="B3" s="5"/>
       <c r="C3" s="11"/>
@@ -5232,7 +5837,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>217</v>
       </c>
@@ -5277,7 +5882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>648</v>
       </c>
@@ -5304,7 +5909,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="39" t="s">
         <v>702</v>
@@ -5329,7 +5934,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="40" t="s">
         <v>703</v>
@@ -5354,7 +5959,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="40" t="s">
         <v>704</v>
@@ -5379,7 +5984,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="30" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="40" t="s">
         <v>691</v>
@@ -5406,7 +6011,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="40" t="s">
         <v>692</v>
@@ -5431,7 +6036,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="41" t="s">
         <v>693</v>
@@ -5458,7 +6063,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="37" t="s">
         <v>661</v>
@@ -5483,7 +6088,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="37" t="s">
         <v>675</v>
@@ -5508,7 +6113,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="38"/>
       <c r="C14" s="12" t="s">
@@ -5533,7 +6138,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="91.5" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="42" t="s">
         <v>652</v>
@@ -5560,7 +6165,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.25" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="43" t="s">
         <v>663</v>
@@ -5587,7 +6192,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="43" t="s">
         <v>664</v>
@@ -5616,7 +6221,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="43"/>
       <c r="C18" s="12" t="s">
@@ -5643,7 +6248,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="43"/>
       <c r="C19" s="12" t="s">
@@ -5668,7 +6273,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="43"/>
       <c r="C20" s="12" t="s">
@@ -5693,7 +6298,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="43" t="s">
         <v>680</v>
@@ -5718,7 +6323,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="43" t="s">
         <v>681</v>
@@ -5743,7 +6348,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="44" t="s">
         <v>682</v>
@@ -5768,7 +6373,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="45"/>
       <c r="C24" s="12" t="s">
@@ -5793,7 +6398,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="46"/>
       <c r="C25" s="12" t="s">
@@ -5818,7 +6423,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="47"/>
       <c r="C26" s="12" t="s">
@@ -5843,7 +6448,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="33"/>
       <c r="C27" s="12"/>
@@ -5860,7 +6465,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="34"/>
       <c r="C28" s="12"/>
@@ -5877,7 +6482,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="34"/>
       <c r="C29" s="12"/>
@@ -5894,7 +6499,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="34"/>
       <c r="C30" s="12"/>
@@ -5911,7 +6516,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="34"/>
       <c r="C31" s="12"/>
@@ -5928,7 +6533,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="34"/>
       <c r="C32" s="12"/>
@@ -5945,7 +6550,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="34"/>
       <c r="C33" s="12"/>
@@ -5962,7 +6567,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="34"/>
       <c r="C34" s="12"/>
@@ -5979,7 +6584,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="34"/>
       <c r="C35" s="12"/>
@@ -5996,7 +6601,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="34"/>
       <c r="C36" s="12"/>
@@ -6013,7 +6618,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="34"/>
       <c r="C37" s="12"/>
@@ -6030,7 +6635,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="35"/>
       <c r="C38" s="12"/>
@@ -6081,7 +6686,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="34"/>
       <c r="C41" s="12"/>
@@ -6098,7 +6703,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="34"/>
       <c r="C42" s="12"/>
@@ -6115,7 +6720,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="33"/>
       <c r="C43" s="12"/>
@@ -6132,7 +6737,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="32"/>
       <c r="C44" s="12"/>
@@ -6149,7 +6754,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="5"/>
       <c r="C45" s="12"/>
@@ -6166,7 +6771,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="5"/>
       <c r="C46" s="12"/>
@@ -6183,7 +6788,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
       <c r="B47" s="5"/>
       <c r="C47" s="12"/>
@@ -6200,7 +6805,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
       <c r="B48" s="5"/>
       <c r="C48" s="12"/>
@@ -6217,7 +6822,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="5"/>
       <c r="C49" s="12"/>
@@ -6234,7 +6839,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
       <c r="B50" s="5"/>
       <c r="C50" s="12"/>
@@ -6251,7 +6856,7 @@
       <c r="N50" s="14"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
       <c r="B51" s="5"/>
       <c r="C51" s="12"/>
@@ -6268,7 +6873,7 @@
       <c r="N51" s="14"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
       <c r="B52" s="5"/>
       <c r="C52" s="12"/>
@@ -6285,7 +6890,7 @@
       <c r="N52" s="14"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
       <c r="B53" s="5"/>
       <c r="C53" s="12"/>
@@ -6302,7 +6907,7 @@
       <c r="N53" s="14"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="5"/>
       <c r="C54" s="12"/>
@@ -6319,7 +6924,7 @@
       <c r="N54" s="14"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="26"/>
       <c r="B55" s="5"/>
       <c r="C55" s="12"/>
@@ -6336,7 +6941,7 @@
       <c r="N55" s="14"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
       <c r="B56" s="5"/>
       <c r="C56" s="12"/>
@@ -6353,7 +6958,7 @@
       <c r="N56" s="14"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
       <c r="B57" s="5"/>
       <c r="C57" s="12"/>
@@ -6370,7 +6975,7 @@
       <c r="N57" s="14"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="26"/>
       <c r="B58" s="5"/>
       <c r="C58" s="12"/>
@@ -6387,7 +6992,7 @@
       <c r="N58" s="14"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
       <c r="B59" s="5"/>
       <c r="C59" s="12"/>
@@ -6404,7 +7009,7 @@
       <c r="N59" s="14"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
       <c r="B60" s="5"/>
       <c r="C60" s="12"/>
@@ -6421,7 +7026,7 @@
       <c r="N60" s="14"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
       <c r="B61" s="5"/>
       <c r="C61" s="12"/>
@@ -6438,7 +7043,7 @@
       <c r="N61" s="14"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="26"/>
       <c r="B62" s="5"/>
       <c r="C62" s="12"/>
@@ -6455,7 +7060,7 @@
       <c r="N62" s="14"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
       <c r="B63" s="5"/>
       <c r="C63" s="12"/>
@@ -6472,7 +7077,7 @@
       <c r="N63" s="14"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
       <c r="B64" s="5"/>
       <c r="C64" s="12"/>
@@ -6489,7 +7094,7 @@
       <c r="N64" s="14"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="26"/>
       <c r="B65" s="5"/>
       <c r="C65" s="12"/>
@@ -6506,7 +7111,7 @@
       <c r="N65" s="14"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="26"/>
       <c r="B66" s="5"/>
       <c r="C66" s="12"/>
@@ -6523,7 +7128,7 @@
       <c r="N66" s="14"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="26"/>
       <c r="B67" s="5"/>
       <c r="C67" s="12"/>
@@ -6540,7 +7145,7 @@
       <c r="N67" s="14"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="26"/>
       <c r="B68" s="5"/>
       <c r="C68" s="12"/>
@@ -6557,7 +7162,7 @@
       <c r="N68" s="14"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="26"/>
       <c r="B69" s="5"/>
       <c r="C69" s="12"/>
@@ -6574,7 +7179,7 @@
       <c r="N69" s="14"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="26"/>
       <c r="B70" s="5"/>
       <c r="C70" s="12"/>
@@ -6591,7 +7196,7 @@
       <c r="N70" s="14"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="26"/>
       <c r="B71" s="5"/>
       <c r="C71" s="12"/>
@@ -6608,7 +7213,7 @@
       <c r="N71" s="14"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="26"/>
       <c r="B72" s="5"/>
       <c r="C72" s="12"/>
@@ -6625,7 +7230,7 @@
       <c r="N72" s="14"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="26"/>
       <c r="B73" s="5"/>
       <c r="C73" s="12"/>
@@ -6642,7 +7247,7 @@
       <c r="N73" s="14"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="26"/>
       <c r="B74" s="5"/>
       <c r="C74" s="12"/>
@@ -6659,7 +7264,7 @@
       <c r="N74" s="14"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="26"/>
       <c r="B75" s="5"/>
       <c r="C75" s="12"/>
@@ -6676,7 +7281,7 @@
       <c r="N75" s="14"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="26"/>
       <c r="B76" s="5"/>
       <c r="C76" s="12"/>
@@ -6693,7 +7298,7 @@
       <c r="N76" s="14"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="26"/>
       <c r="B77" s="5"/>
       <c r="C77" s="12"/>
@@ -6710,7 +7315,7 @@
       <c r="N77" s="14"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="26"/>
       <c r="B78" s="5"/>
       <c r="C78" s="12"/>
@@ -6727,7 +7332,7 @@
       <c r="N78" s="14"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="26"/>
       <c r="B79" s="5"/>
       <c r="C79" s="12"/>
@@ -6744,7 +7349,7 @@
       <c r="N79" s="14"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="26"/>
       <c r="B80" s="5"/>
       <c r="C80" s="12"/>
@@ -6761,7 +7366,7 @@
       <c r="N80" s="14"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="26"/>
       <c r="B81" s="5"/>
       <c r="C81" s="12"/>
@@ -6778,7 +7383,7 @@
       <c r="N81" s="14"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="26"/>
       <c r="B82" s="5"/>
       <c r="C82" s="12"/>
@@ -6795,7 +7400,7 @@
       <c r="N82" s="14"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="26"/>
       <c r="B83" s="5"/>
       <c r="C83" s="12"/>
@@ -6812,7 +7417,7 @@
       <c r="N83" s="14"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="26"/>
       <c r="B84" s="5"/>
       <c r="C84" s="12"/>
@@ -6829,7 +7434,7 @@
       <c r="N84" s="14"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="26"/>
       <c r="B85" s="5"/>
       <c r="C85" s="12"/>
@@ -6846,7 +7451,7 @@
       <c r="N85" s="14"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="26"/>
       <c r="B86" s="5"/>
       <c r="C86" s="12"/>
@@ -6863,7 +7468,7 @@
       <c r="N86" s="14"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="26"/>
       <c r="B87" s="5"/>
       <c r="C87" s="12"/>
@@ -6880,7 +7485,7 @@
       <c r="N87" s="14"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="26"/>
       <c r="B88" s="5"/>
       <c r="C88" s="12"/>
@@ -6897,7 +7502,7 @@
       <c r="N88" s="14"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="26"/>
       <c r="B89" s="5"/>
       <c r="C89" s="12"/>
@@ -6914,7 +7519,7 @@
       <c r="N89" s="14"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="26"/>
       <c r="B90" s="5"/>
       <c r="C90" s="12"/>
@@ -6931,7 +7536,7 @@
       <c r="N90" s="14"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="26"/>
       <c r="B91" s="5"/>
       <c r="C91" s="12"/>
@@ -6948,7 +7553,7 @@
       <c r="N91" s="14"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="26"/>
       <c r="B92" s="5"/>
       <c r="C92" s="12"/>
@@ -6965,7 +7570,7 @@
       <c r="N92" s="14"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="26"/>
       <c r="B93" s="5"/>
       <c r="C93" s="12"/>
@@ -6982,7 +7587,7 @@
       <c r="N93" s="14"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="26"/>
       <c r="B94" s="5"/>
       <c r="C94" s="12"/>
@@ -6999,7 +7604,7 @@
       <c r="N94" s="14"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="26"/>
       <c r="B95" s="5"/>
       <c r="C95" s="12"/>
@@ -7016,7 +7621,7 @@
       <c r="N95" s="14"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="26"/>
       <c r="B96" s="5"/>
       <c r="C96" s="12"/>
@@ -7033,7 +7638,7 @@
       <c r="N96" s="14"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="26"/>
       <c r="B97" s="5"/>
       <c r="C97" s="12"/>
@@ -7050,7 +7655,7 @@
       <c r="N97" s="14"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="26"/>
       <c r="B98" s="5"/>
       <c r="C98" s="12"/>
@@ -7067,7 +7672,7 @@
       <c r="N98" s="14"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="26"/>
       <c r="B99" s="5"/>
       <c r="C99" s="12"/>
@@ -7084,7 +7689,7 @@
       <c r="N99" s="14"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="26"/>
       <c r="B100" s="5"/>
       <c r="C100" s="12"/>
@@ -7101,7 +7706,7 @@
       <c r="N100" s="14"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
       <c r="B101" s="5"/>
       <c r="C101" s="12"/>
@@ -7118,7 +7723,7 @@
       <c r="N101" s="14"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="26"/>
       <c r="B102" s="5"/>
       <c r="C102" s="12"/>
@@ -7135,7 +7740,7 @@
       <c r="N102" s="14"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="26"/>
       <c r="B103" s="5"/>
       <c r="C103" s="12"/>
@@ -7152,7 +7757,7 @@
       <c r="N103" s="14"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="26"/>
       <c r="B104" s="5"/>
       <c r="C104" s="12"/>
@@ -7169,7 +7774,7 @@
       <c r="N104" s="14"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="26"/>
       <c r="B105" s="5"/>
       <c r="C105" s="12"/>
@@ -7186,7 +7791,7 @@
       <c r="N105" s="14"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="26"/>
       <c r="B106" s="5"/>
       <c r="C106" s="12"/>
@@ -7203,7 +7808,7 @@
       <c r="N106" s="14"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="26"/>
       <c r="B107" s="5"/>
       <c r="C107" s="12"/>
@@ -7220,7 +7825,7 @@
       <c r="N107" s="14"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="26"/>
       <c r="B108" s="5"/>
       <c r="C108" s="12"/>
@@ -7237,7 +7842,7 @@
       <c r="N108" s="14"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="26"/>
       <c r="B109" s="5"/>
       <c r="C109" s="12"/>
@@ -7254,7 +7859,7 @@
       <c r="N109" s="14"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="26"/>
       <c r="B110" s="5"/>
       <c r="C110" s="12"/>
@@ -7271,7 +7876,7 @@
       <c r="N110" s="14"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="26"/>
       <c r="B111" s="5"/>
       <c r="C111" s="12"/>
@@ -7288,7 +7893,7 @@
       <c r="N111" s="14"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="26"/>
       <c r="B112" s="5"/>
       <c r="C112" s="12"/>
@@ -7305,7 +7910,7 @@
       <c r="N112" s="14"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="26"/>
       <c r="B113" s="5"/>
       <c r="C113" s="12"/>
@@ -7322,7 +7927,7 @@
       <c r="N113" s="14"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="26"/>
       <c r="B114" s="5"/>
       <c r="C114" s="12"/>
@@ -7339,7 +7944,7 @@
       <c r="N114" s="14"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="26"/>
       <c r="B115" s="5"/>
       <c r="C115" s="12"/>
@@ -7356,7 +7961,7 @@
       <c r="N115" s="14"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="26"/>
       <c r="B116" s="5"/>
       <c r="C116" s="12"/>
@@ -7373,7 +7978,7 @@
       <c r="N116" s="14"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="26"/>
       <c r="B117" s="5"/>
       <c r="C117" s="12"/>
@@ -7390,7 +7995,7 @@
       <c r="N117" s="14"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="26"/>
       <c r="B118" s="5"/>
       <c r="C118" s="12"/>
@@ -7407,7 +8012,7 @@
       <c r="N118" s="14"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="26"/>
       <c r="B119" s="5"/>
       <c r="C119" s="12"/>
@@ -7424,7 +8029,7 @@
       <c r="N119" s="14"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="26"/>
       <c r="B120" s="5"/>
       <c r="C120" s="12"/>
@@ -7441,7 +8046,7 @@
       <c r="N120" s="14"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="26"/>
       <c r="B121" s="5"/>
       <c r="C121" s="12"/>
@@ -7458,7 +8063,7 @@
       <c r="N121" s="14"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="5"/>
       <c r="C122" s="12"/>
@@ -7475,7 +8080,7 @@
       <c r="N122" s="14"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="26"/>
       <c r="B123" s="5"/>
       <c r="C123" s="12"/>
@@ -7492,7 +8097,7 @@
       <c r="N123" s="14"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="26"/>
       <c r="B124" s="5"/>
       <c r="C124" s="12"/>
@@ -7509,7 +8114,7 @@
       <c r="N124" s="14"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="26"/>
       <c r="B125" s="5"/>
       <c r="C125" s="12"/>
@@ -7526,7 +8131,7 @@
       <c r="N125" s="14"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="26"/>
       <c r="B126" s="5"/>
       <c r="C126" s="12"/>
@@ -7543,7 +8148,7 @@
       <c r="N126" s="14"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="26"/>
       <c r="B127" s="5"/>
       <c r="C127" s="12"/>
@@ -7560,7 +8165,7 @@
       <c r="N127" s="14"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="26"/>
       <c r="B128" s="5"/>
       <c r="C128" s="12"/>
@@ -7577,7 +8182,7 @@
       <c r="N128" s="14"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="26"/>
       <c r="B129" s="5"/>
       <c r="C129" s="12"/>
@@ -7594,7 +8199,7 @@
       <c r="N129" s="14"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="26"/>
       <c r="B130" s="5"/>
       <c r="C130" s="12"/>
@@ -7611,7 +8216,7 @@
       <c r="N130" s="14"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="26"/>
       <c r="B131" s="5"/>
       <c r="C131" s="12"/>
@@ -7628,7 +8233,7 @@
       <c r="N131" s="14"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="26"/>
       <c r="B132" s="5"/>
       <c r="C132" s="12"/>
@@ -7645,7 +8250,7 @@
       <c r="N132" s="14"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="26"/>
       <c r="B133" s="5"/>
       <c r="C133" s="12"/>
@@ -7662,7 +8267,7 @@
       <c r="N133" s="14"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="26"/>
       <c r="B134" s="5"/>
       <c r="C134" s="12"/>
@@ -7679,7 +8284,7 @@
       <c r="N134" s="14"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
       <c r="B135" s="5"/>
       <c r="C135" s="12"/>
@@ -7696,7 +8301,7 @@
       <c r="N135" s="14"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="26"/>
       <c r="B136" s="5"/>
       <c r="C136" s="12"/>
@@ -7713,7 +8318,7 @@
       <c r="N136" s="14"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="26"/>
       <c r="B137" s="5"/>
       <c r="C137" s="12"/>
@@ -7730,7 +8335,7 @@
       <c r="N137" s="14"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="26"/>
       <c r="B138" s="5"/>
       <c r="C138" s="12"/>
@@ -7747,7 +8352,7 @@
       <c r="N138" s="14"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="26"/>
       <c r="B139" s="5"/>
       <c r="C139" s="12"/>
@@ -7764,7 +8369,7 @@
       <c r="N139" s="14"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="26"/>
       <c r="B140" s="5"/>
       <c r="C140" s="12"/>
@@ -7781,7 +8386,7 @@
       <c r="N140" s="14"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="26"/>
       <c r="B141" s="5"/>
       <c r="C141" s="12"/>
@@ -7798,7 +8403,7 @@
       <c r="N141" s="14"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="26"/>
       <c r="B142" s="5"/>
       <c r="C142" s="12"/>
@@ -7815,7 +8420,7 @@
       <c r="N142" s="14"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="26"/>
       <c r="B143" s="5"/>
       <c r="C143" s="12"/>
@@ -7832,7 +8437,7 @@
       <c r="N143" s="14"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="26"/>
       <c r="B144" s="5"/>
       <c r="C144" s="12"/>
@@ -7849,7 +8454,7 @@
       <c r="N144" s="14"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="26"/>
       <c r="B145" s="5"/>
       <c r="C145" s="12"/>
@@ -7866,7 +8471,7 @@
       <c r="N145" s="14"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="26"/>
       <c r="B146" s="5"/>
       <c r="C146" s="12"/>
@@ -7883,7 +8488,7 @@
       <c r="N146" s="14"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="26"/>
       <c r="B147" s="5"/>
       <c r="C147" s="12"/>
@@ -7900,7 +8505,7 @@
       <c r="N147" s="14"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="26"/>
       <c r="B148" s="5"/>
       <c r="C148" s="12"/>
@@ -7917,7 +8522,7 @@
       <c r="N148" s="14"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="26"/>
       <c r="B149" s="5"/>
       <c r="C149" s="12"/>
@@ -7934,7 +8539,7 @@
       <c r="N149" s="14"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="26"/>
       <c r="B150" s="5"/>
       <c r="C150" s="12"/>
@@ -7951,7 +8556,7 @@
       <c r="N150" s="14"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="26"/>
       <c r="B151" s="5"/>
       <c r="C151" s="12"/>
@@ -7968,7 +8573,7 @@
       <c r="N151" s="14"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="26"/>
       <c r="B152" s="5"/>
       <c r="C152" s="12"/>
@@ -7985,7 +8590,7 @@
       <c r="N152" s="14"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="26"/>
       <c r="B153" s="5"/>
       <c r="C153" s="12"/>
@@ -8002,7 +8607,7 @@
       <c r="N153" s="14"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="26"/>
       <c r="B154" s="5"/>
       <c r="C154" s="12"/>
@@ -8019,7 +8624,7 @@
       <c r="N154" s="14"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="26"/>
       <c r="B155" s="5"/>
       <c r="C155" s="12"/>
@@ -8036,7 +8641,7 @@
       <c r="N155" s="14"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="26"/>
       <c r="B156" s="5"/>
       <c r="C156" s="12"/>
@@ -8053,7 +8658,7 @@
       <c r="N156" s="14"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="26"/>
       <c r="B157" s="5"/>
       <c r="C157" s="12"/>
@@ -8070,7 +8675,7 @@
       <c r="N157" s="14"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="26"/>
       <c r="B158" s="5"/>
       <c r="C158" s="12"/>
@@ -8087,7 +8692,7 @@
       <c r="N158" s="14"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="26"/>
       <c r="B159" s="5"/>
       <c r="C159" s="12"/>
@@ -8104,7 +8709,7 @@
       <c r="N159" s="14"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="26"/>
       <c r="B160" s="5"/>
       <c r="C160" s="12"/>
@@ -8121,7 +8726,7 @@
       <c r="N160" s="14"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="26"/>
       <c r="B161" s="5"/>
       <c r="C161" s="12"/>
@@ -8138,7 +8743,7 @@
       <c r="N161" s="14"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="26"/>
       <c r="B162" s="5"/>
       <c r="C162" s="12"/>
@@ -8155,7 +8760,7 @@
       <c r="N162" s="14"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="26"/>
       <c r="B163" s="5"/>
       <c r="C163" s="12"/>
@@ -8172,7 +8777,7 @@
       <c r="N163" s="14"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="26"/>
       <c r="B164" s="5"/>
       <c r="C164" s="12"/>
@@ -8189,7 +8794,7 @@
       <c r="N164" s="14"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="26"/>
       <c r="B165" s="5"/>
       <c r="C165" s="12"/>
@@ -8206,7 +8811,7 @@
       <c r="N165" s="14"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="26"/>
       <c r="B166" s="5"/>
       <c r="C166" s="12"/>
@@ -8223,7 +8828,7 @@
       <c r="N166" s="14"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="26"/>
       <c r="B167" s="5"/>
       <c r="C167" s="12"/>
@@ -8240,7 +8845,7 @@
       <c r="N167" s="14"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="26"/>
       <c r="B168" s="5"/>
       <c r="C168" s="12"/>
@@ -8257,7 +8862,7 @@
       <c r="N168" s="14"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="26"/>
       <c r="B169" s="5"/>
       <c r="C169" s="12"/>
@@ -8274,7 +8879,7 @@
       <c r="N169" s="14"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="26"/>
       <c r="B170" s="5"/>
       <c r="C170" s="12"/>
@@ -8291,7 +8896,7 @@
       <c r="N170" s="14"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="26"/>
       <c r="B171" s="5"/>
       <c r="C171" s="12"/>
@@ -8308,7 +8913,7 @@
       <c r="N171" s="14"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="26"/>
       <c r="B172" s="5"/>
       <c r="C172" s="12"/>
@@ -8325,7 +8930,7 @@
       <c r="N172" s="14"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="26"/>
       <c r="B173" s="5"/>
       <c r="C173" s="12"/>
@@ -8342,7 +8947,7 @@
       <c r="N173" s="14"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="26"/>
       <c r="B174" s="5"/>
       <c r="C174" s="12"/>
@@ -8359,7 +8964,7 @@
       <c r="N174" s="14"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="26"/>
       <c r="B175" s="5"/>
       <c r="C175" s="12"/>
@@ -8376,7 +8981,7 @@
       <c r="N175" s="14"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="26"/>
       <c r="B176" s="5"/>
       <c r="C176" s="12"/>
@@ -8393,7 +8998,7 @@
       <c r="N176" s="14"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="26"/>
       <c r="B177" s="5"/>
       <c r="C177" s="12"/>
@@ -8410,7 +9015,7 @@
       <c r="N177" s="14"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="26"/>
       <c r="B178" s="5"/>
       <c r="C178" s="12"/>
@@ -8427,7 +9032,7 @@
       <c r="N178" s="14"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="26"/>
       <c r="B179" s="5"/>
       <c r="C179" s="12"/>
@@ -8444,7 +9049,7 @@
       <c r="N179" s="14"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="26"/>
       <c r="B180" s="5"/>
       <c r="C180" s="12"/>
@@ -8461,7 +9066,7 @@
       <c r="N180" s="14"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="26"/>
       <c r="B181" s="5"/>
       <c r="C181" s="12"/>
@@ -8478,7 +9083,7 @@
       <c r="N181" s="14"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="26"/>
       <c r="B182" s="5"/>
       <c r="C182" s="12"/>
@@ -8495,7 +9100,7 @@
       <c r="N182" s="14"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="26"/>
       <c r="B183" s="5"/>
       <c r="C183" s="12"/>
@@ -8512,7 +9117,7 @@
       <c r="N183" s="14"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="26"/>
       <c r="B184" s="5"/>
       <c r="C184" s="12"/>
@@ -8529,7 +9134,7 @@
       <c r="N184" s="14"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="26"/>
       <c r="B185" s="5"/>
       <c r="C185" s="12"/>
@@ -8546,7 +9151,7 @@
       <c r="N185" s="14"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="26"/>
       <c r="B186" s="5"/>
       <c r="C186" s="12"/>
@@ -8563,7 +9168,7 @@
       <c r="N186" s="14"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="26"/>
       <c r="B187" s="5"/>
       <c r="C187" s="12"/>
@@ -8580,7 +9185,7 @@
       <c r="N187" s="14"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="26"/>
       <c r="B188" s="5"/>
       <c r="C188" s="12"/>
@@ -8597,7 +9202,7 @@
       <c r="N188" s="14"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="26"/>
       <c r="B189" s="5"/>
       <c r="C189" s="12"/>
@@ -8614,7 +9219,7 @@
       <c r="N189" s="14"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="26"/>
       <c r="B190" s="5"/>
       <c r="C190" s="12"/>
@@ -8631,7 +9236,7 @@
       <c r="N190" s="14"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="26"/>
       <c r="B191" s="5"/>
       <c r="C191" s="12"/>
@@ -8648,7 +9253,7 @@
       <c r="N191" s="14"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="26"/>
       <c r="B192" s="5"/>
       <c r="C192" s="12"/>
@@ -8665,7 +9270,7 @@
       <c r="N192" s="14"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="26"/>
       <c r="B193" s="5"/>
       <c r="C193" s="12"/>
@@ -8682,7 +9287,7 @@
       <c r="N193" s="14"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="26"/>
       <c r="B194" s="5"/>
       <c r="C194" s="12"/>
@@ -8699,7 +9304,7 @@
       <c r="N194" s="14"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="26"/>
       <c r="B195" s="5"/>
       <c r="C195" s="12"/>
@@ -8716,7 +9321,7 @@
       <c r="N195" s="14"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="26"/>
       <c r="B196" s="5"/>
       <c r="C196" s="12"/>
@@ -8733,7 +9338,7 @@
       <c r="N196" s="14"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="26"/>
       <c r="B197" s="5"/>
       <c r="C197" s="12"/>
@@ -8750,7 +9355,7 @@
       <c r="N197" s="14"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="26"/>
       <c r="B198" s="5"/>
       <c r="C198" s="12"/>
@@ -8767,7 +9372,7 @@
       <c r="N198" s="14"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="26"/>
       <c r="B199" s="5"/>
       <c r="C199" s="12"/>
@@ -8784,7 +9389,7 @@
       <c r="N199" s="14"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="26"/>
       <c r="B200" s="5"/>
       <c r="C200" s="12"/>
@@ -8801,7 +9406,7 @@
       <c r="N200" s="14"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="26"/>
       <c r="B201" s="5"/>
       <c r="C201" s="12"/>
@@ -8818,7 +9423,7 @@
       <c r="N201" s="14"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="26"/>
       <c r="B202" s="5"/>
       <c r="C202" s="12"/>
@@ -8835,7 +9440,7 @@
       <c r="N202" s="14"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="26"/>
       <c r="B203" s="5"/>
       <c r="C203" s="12"/>
@@ -8852,7 +9457,7 @@
       <c r="N203" s="14"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="26"/>
       <c r="B204" s="5"/>
       <c r="C204" s="12"/>
@@ -8869,7 +9474,7 @@
       <c r="N204" s="14"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="26"/>
       <c r="B205" s="5"/>
       <c r="C205" s="12"/>
@@ -8886,7 +9491,7 @@
       <c r="N205" s="14"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="26"/>
       <c r="B206" s="5"/>
       <c r="C206" s="12"/>
@@ -8903,7 +9508,7 @@
       <c r="N206" s="14"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="26"/>
       <c r="B207" s="5"/>
       <c r="C207" s="12"/>
@@ -8920,7 +9525,7 @@
       <c r="N207" s="14"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="26"/>
       <c r="B208" s="5"/>
       <c r="C208" s="12"/>
@@ -8937,7 +9542,7 @@
       <c r="N208" s="14"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="26"/>
       <c r="B209" s="5"/>
       <c r="C209" s="12"/>
@@ -8954,7 +9559,7 @@
       <c r="N209" s="14"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="26"/>
       <c r="B210" s="5"/>
       <c r="C210" s="12"/>
@@ -8971,7 +9576,7 @@
       <c r="N210" s="14"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="26"/>
       <c r="B211" s="5"/>
       <c r="C211" s="12"/>
@@ -8988,7 +9593,7 @@
       <c r="N211" s="14"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="26"/>
       <c r="B212" s="5"/>
       <c r="C212" s="12"/>
@@ -9005,7 +9610,7 @@
       <c r="N212" s="14"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="26"/>
       <c r="B213" s="5"/>
       <c r="C213" s="12"/>
@@ -9022,7 +9627,7 @@
       <c r="N213" s="14"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="26"/>
       <c r="B214" s="5"/>
       <c r="C214" s="12"/>
@@ -9039,7 +9644,7 @@
       <c r="N214" s="14"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="26"/>
       <c r="B215" s="5"/>
       <c r="C215" s="12"/>
@@ -9056,7 +9661,7 @@
       <c r="N215" s="14"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="26"/>
       <c r="B216" s="5"/>
       <c r="C216" s="12"/>
@@ -9073,7 +9678,7 @@
       <c r="N216" s="14"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="26"/>
       <c r="B217" s="5"/>
       <c r="C217" s="12"/>
@@ -9090,7 +9695,7 @@
       <c r="N217" s="14"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="26"/>
       <c r="B218" s="5"/>
       <c r="C218" s="12"/>
@@ -9107,7 +9712,7 @@
       <c r="N218" s="14"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="26"/>
       <c r="B219" s="5"/>
       <c r="C219" s="12"/>
@@ -9124,7 +9729,7 @@
       <c r="N219" s="14"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="26"/>
       <c r="B220" s="5"/>
       <c r="C220" s="12"/>
@@ -9141,7 +9746,7 @@
       <c r="N220" s="14"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="26"/>
       <c r="B221" s="5"/>
       <c r="C221" s="12"/>
@@ -9158,7 +9763,7 @@
       <c r="N221" s="14"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="26"/>
       <c r="B222" s="5"/>
       <c r="C222" s="12"/>
@@ -9175,7 +9780,7 @@
       <c r="N222" s="14"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="26"/>
       <c r="B223" s="5"/>
       <c r="C223" s="12"/>
@@ -9192,7 +9797,7 @@
       <c r="N223" s="14"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="26"/>
       <c r="B224" s="5"/>
       <c r="C224" s="12"/>
@@ -9209,7 +9814,7 @@
       <c r="N224" s="14"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="26"/>
       <c r="B225" s="5"/>
       <c r="C225" s="12"/>
@@ -9226,7 +9831,7 @@
       <c r="N225" s="14"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="26"/>
       <c r="B226" s="5"/>
       <c r="C226" s="12"/>
@@ -9243,7 +9848,7 @@
       <c r="N226" s="14"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="26"/>
       <c r="B227" s="5"/>
       <c r="C227" s="12"/>
@@ -9260,7 +9865,7 @@
       <c r="N227" s="14"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="26"/>
       <c r="B228" s="5"/>
       <c r="C228" s="12"/>
@@ -9277,7 +9882,7 @@
       <c r="N228" s="14"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="26"/>
       <c r="B229" s="5"/>
       <c r="C229" s="12"/>
@@ -9294,7 +9899,7 @@
       <c r="N229" s="14"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="26"/>
       <c r="B230" s="5"/>
       <c r="C230" s="12"/>
@@ -9311,7 +9916,7 @@
       <c r="N230" s="14"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="26"/>
       <c r="B231" s="5"/>
       <c r="C231" s="12"/>
@@ -9328,7 +9933,7 @@
       <c r="N231" s="14"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="26"/>
       <c r="B232" s="5"/>
       <c r="C232" s="12"/>
@@ -9345,7 +9950,7 @@
       <c r="N232" s="14"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="26"/>
       <c r="B233" s="5"/>
       <c r="C233" s="12"/>
@@ -9362,7 +9967,7 @@
       <c r="N233" s="14"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="26"/>
       <c r="B234" s="5"/>
       <c r="C234" s="12"/>
@@ -9379,7 +9984,7 @@
       <c r="N234" s="14"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="26"/>
       <c r="B235" s="5"/>
       <c r="C235" s="12"/>
@@ -9396,7 +10001,7 @@
       <c r="N235" s="14"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="26"/>
       <c r="B236" s="5"/>
       <c r="C236" s="12"/>
@@ -9413,7 +10018,7 @@
       <c r="N236" s="14"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="26"/>
       <c r="B237" s="5"/>
       <c r="C237" s="12"/>
@@ -9430,7 +10035,7 @@
       <c r="N237" s="14"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="26"/>
       <c r="B238" s="5"/>
       <c r="C238" s="12"/>
@@ -9447,7 +10052,7 @@
       <c r="N238" s="14"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="26"/>
       <c r="B239" s="5"/>
       <c r="C239" s="12"/>
@@ -9464,7 +10069,7 @@
       <c r="N239" s="14"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="26"/>
       <c r="B240" s="5"/>
       <c r="C240" s="12"/>
@@ -9481,7 +10086,7 @@
       <c r="N240" s="14"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="26"/>
       <c r="B241" s="5"/>
       <c r="C241" s="12"/>
@@ -9498,7 +10103,7 @@
       <c r="N241" s="14"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="26"/>
       <c r="B242" s="5"/>
       <c r="C242" s="12"/>
@@ -9515,7 +10120,7 @@
       <c r="N242" s="14"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="26"/>
       <c r="B243" s="5"/>
       <c r="C243" s="12"/>
@@ -9532,7 +10137,7 @@
       <c r="N243" s="14"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="26"/>
       <c r="B244" s="5"/>
       <c r="C244" s="12"/>
@@ -9549,7 +10154,7 @@
       <c r="N244" s="14"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="26"/>
       <c r="B245" s="5"/>
       <c r="C245" s="12"/>
@@ -9566,7 +10171,7 @@
       <c r="N245" s="14"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="26"/>
       <c r="B246" s="5"/>
       <c r="C246" s="12"/>
@@ -9583,7 +10188,7 @@
       <c r="N246" s="14"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="26"/>
       <c r="B247" s="5"/>
       <c r="C247" s="12"/>
@@ -9600,7 +10205,7 @@
       <c r="N247" s="14"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="26"/>
       <c r="B248" s="5"/>
       <c r="C248" s="12"/>
@@ -9617,7 +10222,7 @@
       <c r="N248" s="14"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="26"/>
       <c r="B249" s="5"/>
       <c r="C249" s="12"/>
@@ -9634,7 +10239,7 @@
       <c r="N249" s="14"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="26"/>
       <c r="B250" s="5"/>
       <c r="C250" s="12"/>
@@ -9651,7 +10256,7 @@
       <c r="N250" s="14"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="26"/>
       <c r="B251" s="5"/>
       <c r="C251" s="12"/>
@@ -9668,7 +10273,7 @@
       <c r="N251" s="14"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="26"/>
       <c r="B252" s="5"/>
       <c r="C252" s="12"/>
@@ -9685,7 +10290,7 @@
       <c r="N252" s="14"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="26"/>
       <c r="B253" s="5"/>
       <c r="C253" s="12"/>
@@ -9702,7 +10307,7 @@
       <c r="N253" s="14"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="26"/>
       <c r="B254" s="5"/>
       <c r="C254" s="12"/>
@@ -9719,7 +10324,7 @@
       <c r="N254" s="14"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="26"/>
       <c r="B255" s="5"/>
       <c r="C255" s="12"/>
@@ -9736,7 +10341,7 @@
       <c r="N255" s="14"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="26"/>
       <c r="B256" s="5"/>
       <c r="C256" s="12"/>
@@ -9753,7 +10358,7 @@
       <c r="N256" s="14"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="26"/>
       <c r="B257" s="5"/>
       <c r="C257" s="12"/>
@@ -9770,7 +10375,7 @@
       <c r="N257" s="14"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="26"/>
       <c r="B258" s="5"/>
       <c r="C258" s="12"/>
@@ -9787,7 +10392,7 @@
       <c r="N258" s="14"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="26"/>
       <c r="B259" s="5"/>
       <c r="C259" s="12"/>
@@ -9804,7 +10409,7 @@
       <c r="N259" s="14"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="26"/>
       <c r="B260" s="5"/>
       <c r="C260" s="12"/>
@@ -9821,7 +10426,7 @@
       <c r="N260" s="14"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="26"/>
       <c r="B261" s="5"/>
       <c r="C261" s="12"/>
@@ -9838,7 +10443,7 @@
       <c r="N261" s="14"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="26"/>
       <c r="B262" s="5"/>
       <c r="C262" s="12"/>
@@ -9855,7 +10460,7 @@
       <c r="N262" s="14"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="26"/>
       <c r="B263" s="5"/>
       <c r="C263" s="12"/>
@@ -9872,7 +10477,7 @@
       <c r="N263" s="14"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="26"/>
       <c r="B264" s="5"/>
       <c r="C264" s="12"/>
@@ -9889,7 +10494,7 @@
       <c r="N264" s="14"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="26"/>
       <c r="B265" s="5"/>
       <c r="C265" s="12"/>
@@ -9906,7 +10511,7 @@
       <c r="N265" s="14"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="26"/>
       <c r="B266" s="5"/>
       <c r="C266" s="12"/>
@@ -9923,7 +10528,7 @@
       <c r="N266" s="14"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="26"/>
       <c r="B267" s="5"/>
       <c r="C267" s="12"/>
@@ -9940,7 +10545,7 @@
       <c r="N267" s="14"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="26"/>
       <c r="B268" s="5"/>
       <c r="C268" s="12"/>
@@ -9957,7 +10562,7 @@
       <c r="N268" s="14"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="26"/>
       <c r="B269" s="5"/>
       <c r="C269" s="12"/>
@@ -9974,7 +10579,7 @@
       <c r="N269" s="14"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="26"/>
       <c r="B270" s="5"/>
       <c r="C270" s="12"/>
@@ -9991,7 +10596,7 @@
       <c r="N270" s="14"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="26"/>
       <c r="B271" s="5"/>
       <c r="C271" s="12"/>
@@ -10008,7 +10613,7 @@
       <c r="N271" s="14"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="26"/>
       <c r="B272" s="5"/>
       <c r="C272" s="12"/>
@@ -10025,7 +10630,7 @@
       <c r="N272" s="14"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="26"/>
       <c r="B273" s="5"/>
       <c r="C273" s="12"/>
@@ -10042,7 +10647,7 @@
       <c r="N273" s="14"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="26"/>
       <c r="B274" s="5"/>
       <c r="C274" s="12"/>
@@ -10059,7 +10664,7 @@
       <c r="N274" s="14"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="26"/>
       <c r="B275" s="5"/>
       <c r="C275" s="12"/>
@@ -10076,7 +10681,7 @@
       <c r="N275" s="14"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="26"/>
       <c r="B276" s="5"/>
       <c r="C276" s="12"/>
@@ -10093,7 +10698,7 @@
       <c r="N276" s="14"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="26"/>
       <c r="B277" s="5"/>
       <c r="C277" s="12"/>
@@ -10110,7 +10715,7 @@
       <c r="N277" s="14"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="26"/>
       <c r="B278" s="5"/>
       <c r="C278" s="12"/>
@@ -10127,7 +10732,7 @@
       <c r="N278" s="14"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="26"/>
       <c r="B279" s="5"/>
       <c r="C279" s="12"/>
@@ -10144,7 +10749,7 @@
       <c r="N279" s="14"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="26"/>
       <c r="B280" s="5"/>
       <c r="C280" s="12"/>
@@ -10161,7 +10766,7 @@
       <c r="N280" s="14"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="26"/>
       <c r="B281" s="5"/>
       <c r="C281" s="12"/>
@@ -10178,7 +10783,7 @@
       <c r="N281" s="14"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="26"/>
       <c r="B282" s="5"/>
       <c r="C282" s="12"/>
@@ -10195,7 +10800,7 @@
       <c r="N282" s="14"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="26"/>
       <c r="B283" s="5"/>
       <c r="C283" s="12"/>
@@ -10212,7 +10817,7 @@
       <c r="N283" s="14"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="26"/>
       <c r="B284" s="5"/>
       <c r="C284" s="12"/>
@@ -10229,7 +10834,7 @@
       <c r="N284" s="14"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="26"/>
       <c r="B285" s="5"/>
       <c r="C285" s="12"/>
@@ -10246,7 +10851,7 @@
       <c r="N285" s="14"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="26"/>
       <c r="B286" s="5"/>
       <c r="C286" s="12"/>
@@ -10263,7 +10868,7 @@
       <c r="N286" s="14"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="26"/>
       <c r="B287" s="5"/>
       <c r="C287" s="12"/>
@@ -10280,7 +10885,7 @@
       <c r="N287" s="14"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="26"/>
       <c r="B288" s="5"/>
       <c r="C288" s="12"/>
@@ -10297,7 +10902,7 @@
       <c r="N288" s="14"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="26"/>
       <c r="B289" s="5"/>
       <c r="C289" s="12"/>
@@ -10314,7 +10919,7 @@
       <c r="N289" s="14"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="26"/>
       <c r="B290" s="5"/>
       <c r="C290" s="12"/>
@@ -10331,7 +10936,7 @@
       <c r="N290" s="14"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="26"/>
       <c r="B291" s="5"/>
       <c r="C291" s="12"/>
@@ -10348,7 +10953,7 @@
       <c r="N291" s="14"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="26"/>
       <c r="B292" s="5"/>
       <c r="C292" s="12"/>
@@ -10365,7 +10970,7 @@
       <c r="N292" s="14"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="26"/>
       <c r="B293" s="5"/>
       <c r="C293" s="12"/>
@@ -10382,7 +10987,7 @@
       <c r="N293" s="14"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="26"/>
       <c r="B294" s="5"/>
       <c r="C294" s="12"/>
@@ -10399,7 +11004,7 @@
       <c r="N294" s="14"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="26"/>
       <c r="B295" s="5"/>
       <c r="C295" s="12"/>
@@ -10416,7 +11021,7 @@
       <c r="N295" s="14"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="26"/>
       <c r="B296" s="5"/>
       <c r="C296" s="12"/>
@@ -10433,7 +11038,7 @@
       <c r="N296" s="14"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="26"/>
       <c r="B297" s="5"/>
       <c r="C297" s="12"/>
@@ -10450,7 +11055,7 @@
       <c r="N297" s="14"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298" s="26"/>
       <c r="B298" s="5"/>
       <c r="C298" s="12"/>
@@ -10467,7 +11072,7 @@
       <c r="N298" s="14"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299" s="26"/>
       <c r="B299" s="5"/>
       <c r="C299" s="12"/>
@@ -10484,7 +11089,7 @@
       <c r="N299" s="14"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300" s="26"/>
       <c r="B300" s="5"/>
       <c r="C300" s="12"/>
@@ -10501,7 +11106,7 @@
       <c r="N300" s="14"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301" s="26"/>
       <c r="B301" s="5"/>
       <c r="C301" s="12"/>
@@ -10518,7 +11123,7 @@
       <c r="N301" s="14"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302" s="26"/>
       <c r="B302" s="5"/>
       <c r="C302" s="12"/>
@@ -10535,7 +11140,7 @@
       <c r="N302" s="14"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303" s="26"/>
       <c r="B303" s="5"/>
       <c r="C303" s="12"/>
@@ -10552,7 +11157,7 @@
       <c r="N303" s="14"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304" s="26"/>
       <c r="B304" s="5"/>
       <c r="C304" s="12"/>
@@ -10569,7 +11174,7 @@
       <c r="N304" s="14"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305" s="26"/>
       <c r="B305" s="5"/>
       <c r="C305" s="12"/>
@@ -10586,7 +11191,7 @@
       <c r="N305" s="14"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306" s="26"/>
       <c r="B306" s="5"/>
       <c r="C306" s="12"/>
@@ -10603,7 +11208,7 @@
       <c r="N306" s="14"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307" s="26"/>
       <c r="B307" s="5"/>
       <c r="C307" s="12"/>
@@ -10620,7 +11225,7 @@
       <c r="N307" s="14"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308" s="26"/>
       <c r="B308" s="5"/>
       <c r="C308" s="12"/>
@@ -10637,7 +11242,7 @@
       <c r="N308" s="14"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309" s="26"/>
       <c r="B309" s="5"/>
       <c r="C309" s="12"/>
@@ -10654,7 +11259,7 @@
       <c r="N309" s="14"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310" s="26"/>
       <c r="B310" s="5"/>
       <c r="C310" s="12"/>
@@ -10672,7 +11277,7 @@
       <c r="O310" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -10680,69 +11285,69 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N311:N1048576 N3:N110">
-    <cfRule type="beginsWith" dxfId="11" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="11" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="10" operator="beginsWith" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="9" operator="beginsWith" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N111:N310">
-    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="8" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N111,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="7" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N111,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="6" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N111,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D310" xr:uid="{1681F278-0375-4B32-B765-E4491B70C2BE}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D310" type="list" xr:uid="{1681F278-0375-4B32-B765-E4491B70C2BE}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C310" xr:uid="{8A0AA85C-47ED-42AC-A5DA-EC55D6B787BD}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C310" type="list" xr:uid="{8A0AA85C-47ED-42AC-A5DA-EC55D6B787BD}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O297"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="false" topLeftCell="E1" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A24" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.25" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="46.75" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="39.125" style="9" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.375" style="9" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="47.375" style="9" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="39.125" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="37.75" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="15" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="15" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="27" width="28.25" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="46.75" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="35.625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="9" width="39.125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="9" width="45.375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="9" width="47.375" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="9" width="39.125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="22" width="37.75" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="16" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="15" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="10" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -10773,7 +11378,7 @@
       <c r="N1" s="50"/>
       <c r="O1" s="51"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>538</v>
       </c>
@@ -10794,7 +11399,7 @@
       <c r="N2" s="55"/>
       <c r="O2" s="55"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
       <c r="B3" s="5"/>
       <c r="C3" s="11"/>
@@ -10811,7 +11416,7 @@
       <c r="N3" s="14"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>217</v>
       </c>
@@ -10856,7 +11461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>540</v>
       </c>
@@ -10891,7 +11496,7 @@
       <c r="N5" s="14"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="5" t="s">
         <v>599</v>
@@ -10924,7 +11529,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="5" t="s">
         <v>686</v>
@@ -10957,7 +11562,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="5" t="s">
         <v>687</v>
@@ -10986,7 +11591,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="5"/>
       <c r="C9" s="12" t="s">
@@ -11011,7 +11616,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>600</v>
@@ -11042,7 +11647,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="5" t="s">
         <v>601</v>
@@ -11073,7 +11678,7 @@
       <c r="N11" s="14"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="79.5" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="5" t="s">
         <v>695</v>
@@ -11100,7 +11705,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>688</v>
       </c>
@@ -11127,7 +11732,8 @@
       <c r="N13" s="14"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14"/>
       <c r="B14" s="28" t="s">
         <v>551</v>
       </c>
@@ -11153,7 +11759,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="29"/>
       <c r="C15" s="12" t="s">
@@ -11178,7 +11784,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="29" t="s">
         <v>556</v>
@@ -11209,7 +11815,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="29" t="s">
         <v>559</v>
@@ -11238,7 +11844,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="29"/>
       <c r="C18" s="12" t="s">
@@ -11265,7 +11871,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="29"/>
       <c r="C19" s="12" t="s">
@@ -11290,7 +11896,7 @@
       <c r="N19" s="14"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="29"/>
       <c r="C20" s="12" t="s">
@@ -11315,7 +11921,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="29" t="s">
         <v>696</v>
@@ -11344,7 +11950,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="29"/>
       <c r="C22" s="12" t="s">
@@ -11371,7 +11977,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="29"/>
       <c r="C23" s="12" t="s">
@@ -11398,7 +12004,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="29"/>
       <c r="C24" s="12" t="s">
@@ -11425,7 +12031,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="30"/>
       <c r="C25" s="12" t="s">
@@ -11452,7 +12058,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="210" x14ac:dyDescent="0.25">
+    <row ht="210" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="29" t="s">
         <v>697</v>
@@ -11481,7 +12087,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="210" x14ac:dyDescent="0.25">
+    <row ht="210" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="29"/>
       <c r="C27" s="12" t="s">
@@ -11508,7 +12114,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="29" t="s">
         <v>577</v>
@@ -11537,7 +12143,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="29" t="s">
         <v>581</v>
@@ -11566,7 +12172,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="28" t="s">
         <v>584</v>
@@ -11593,7 +12199,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>699</v>
       </c>
@@ -11624,7 +12230,7 @@
       <c r="N31" s="14"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="5" t="s">
         <v>589</v>
@@ -11657,7 +12263,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="5" t="s">
         <v>589</v>
@@ -11690,7 +12296,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="5"/>
       <c r="C34" s="12"/>
@@ -11707,7 +12313,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="5"/>
       <c r="C35" s="12"/>
@@ -11724,7 +12330,7 @@
       <c r="N35" s="14"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="5"/>
       <c r="C36" s="12"/>
@@ -11741,7 +12347,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="5"/>
       <c r="C37" s="12"/>
@@ -11758,7 +12364,7 @@
       <c r="N37" s="14"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="5"/>
       <c r="C38" s="12"/>
@@ -11775,7 +12381,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="5"/>
       <c r="C39" s="12"/>
@@ -11792,7 +12398,7 @@
       <c r="N39" s="14"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
       <c r="B40" s="5"/>
       <c r="C40" s="12"/>
@@ -11809,7 +12415,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="5"/>
       <c r="C41" s="12"/>
@@ -11826,7 +12432,7 @@
       <c r="N41" s="14"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="5"/>
       <c r="C42" s="12"/>
@@ -11843,7 +12449,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="5"/>
       <c r="C43" s="12"/>
@@ -11860,7 +12466,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="5"/>
       <c r="C44" s="12"/>
@@ -11877,7 +12483,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="5"/>
       <c r="C45" s="12"/>
@@ -11894,7 +12500,7 @@
       <c r="N45" s="14"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="5"/>
       <c r="C46" s="12"/>
@@ -11911,7 +12517,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
       <c r="B47" s="5"/>
       <c r="C47" s="12"/>
@@ -11928,7 +12534,7 @@
       <c r="N47" s="14"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
       <c r="B48" s="5"/>
       <c r="C48" s="12"/>
@@ -11945,7 +12551,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="5"/>
       <c r="C49" s="12"/>
@@ -11962,7 +12568,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
       <c r="B50" s="5"/>
       <c r="C50" s="12"/>
@@ -11979,7 +12585,7 @@
       <c r="N50" s="14"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
       <c r="B51" s="5"/>
       <c r="C51" s="12"/>
@@ -11996,7 +12602,7 @@
       <c r="N51" s="14"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
       <c r="B52" s="5"/>
       <c r="C52" s="12"/>
@@ -12013,7 +12619,7 @@
       <c r="N52" s="14"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
       <c r="B53" s="5"/>
       <c r="C53" s="12"/>
@@ -12030,7 +12636,7 @@
       <c r="N53" s="14"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="5"/>
       <c r="C54" s="12"/>
@@ -12047,7 +12653,7 @@
       <c r="N54" s="14"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="26"/>
       <c r="B55" s="5"/>
       <c r="C55" s="12"/>
@@ -12064,7 +12670,7 @@
       <c r="N55" s="14"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
       <c r="B56" s="5"/>
       <c r="C56" s="12"/>
@@ -12081,7 +12687,7 @@
       <c r="N56" s="14"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
       <c r="B57" s="5"/>
       <c r="C57" s="12"/>
@@ -12098,7 +12704,7 @@
       <c r="N57" s="14"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="26"/>
       <c r="B58" s="5"/>
       <c r="C58" s="12"/>
@@ -12115,7 +12721,7 @@
       <c r="N58" s="14"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
       <c r="B59" s="5"/>
       <c r="C59" s="12"/>
@@ -12132,7 +12738,7 @@
       <c r="N59" s="14"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="26"/>
       <c r="B60" s="5"/>
       <c r="C60" s="12"/>
@@ -12149,7 +12755,7 @@
       <c r="N60" s="14"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
       <c r="B61" s="5"/>
       <c r="C61" s="12"/>
@@ -12166,7 +12772,7 @@
       <c r="N61" s="14"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="26"/>
       <c r="B62" s="5"/>
       <c r="C62" s="12"/>
@@ -12183,7 +12789,7 @@
       <c r="N62" s="14"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
       <c r="B63" s="5"/>
       <c r="C63" s="12"/>
@@ -12200,7 +12806,7 @@
       <c r="N63" s="14"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
       <c r="B64" s="5"/>
       <c r="C64" s="12"/>
@@ -12217,7 +12823,7 @@
       <c r="N64" s="14"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="26"/>
       <c r="B65" s="5"/>
       <c r="C65" s="12"/>
@@ -12234,7 +12840,7 @@
       <c r="N65" s="14"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="26"/>
       <c r="B66" s="5"/>
       <c r="C66" s="12"/>
@@ -12251,7 +12857,7 @@
       <c r="N66" s="14"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="26"/>
       <c r="B67" s="5"/>
       <c r="C67" s="12"/>
@@ -12268,7 +12874,7 @@
       <c r="N67" s="14"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="26"/>
       <c r="B68" s="5"/>
       <c r="C68" s="12"/>
@@ -12285,7 +12891,7 @@
       <c r="N68" s="14"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="26"/>
       <c r="B69" s="5"/>
       <c r="C69" s="12"/>
@@ -12302,7 +12908,7 @@
       <c r="N69" s="14"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="26"/>
       <c r="B70" s="5"/>
       <c r="C70" s="12"/>
@@ -12319,7 +12925,7 @@
       <c r="N70" s="14"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="26"/>
       <c r="B71" s="5"/>
       <c r="C71" s="12"/>
@@ -12336,7 +12942,7 @@
       <c r="N71" s="14"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="26"/>
       <c r="B72" s="5"/>
       <c r="C72" s="12"/>
@@ -12353,7 +12959,7 @@
       <c r="N72" s="14"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="26"/>
       <c r="B73" s="5"/>
       <c r="C73" s="12"/>
@@ -12370,7 +12976,7 @@
       <c r="N73" s="14"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="26"/>
       <c r="B74" s="5"/>
       <c r="C74" s="12"/>
@@ -12387,7 +12993,7 @@
       <c r="N74" s="14"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="26"/>
       <c r="B75" s="5"/>
       <c r="C75" s="12"/>
@@ -12404,7 +13010,7 @@
       <c r="N75" s="14"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="26"/>
       <c r="B76" s="5"/>
       <c r="C76" s="12"/>
@@ -12421,7 +13027,7 @@
       <c r="N76" s="14"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="26"/>
       <c r="B77" s="5"/>
       <c r="C77" s="12"/>
@@ -12438,7 +13044,7 @@
       <c r="N77" s="14"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="26"/>
       <c r="B78" s="5"/>
       <c r="C78" s="12"/>
@@ -12455,7 +13061,7 @@
       <c r="N78" s="14"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="26"/>
       <c r="B79" s="5"/>
       <c r="C79" s="12"/>
@@ -12472,7 +13078,7 @@
       <c r="N79" s="14"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="26"/>
       <c r="B80" s="5"/>
       <c r="C80" s="12"/>
@@ -12489,7 +13095,7 @@
       <c r="N80" s="14"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="26"/>
       <c r="B81" s="5"/>
       <c r="C81" s="12"/>
@@ -12506,7 +13112,7 @@
       <c r="N81" s="14"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="26"/>
       <c r="B82" s="5"/>
       <c r="C82" s="12"/>
@@ -12523,7 +13129,7 @@
       <c r="N82" s="14"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="26"/>
       <c r="B83" s="5"/>
       <c r="C83" s="12"/>
@@ -12540,7 +13146,7 @@
       <c r="N83" s="14"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="26"/>
       <c r="B84" s="5"/>
       <c r="C84" s="12"/>
@@ -12557,7 +13163,7 @@
       <c r="N84" s="14"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="26"/>
       <c r="B85" s="5"/>
       <c r="C85" s="12"/>
@@ -12574,7 +13180,7 @@
       <c r="N85" s="14"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="26"/>
       <c r="B86" s="5"/>
       <c r="C86" s="12"/>
@@ -12591,7 +13197,7 @@
       <c r="N86" s="14"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="26"/>
       <c r="B87" s="5"/>
       <c r="C87" s="12"/>
@@ -12608,7 +13214,7 @@
       <c r="N87" s="14"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="26"/>
       <c r="B88" s="5"/>
       <c r="C88" s="12"/>
@@ -12625,7 +13231,7 @@
       <c r="N88" s="14"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="26"/>
       <c r="B89" s="5"/>
       <c r="C89" s="12"/>
@@ -12642,7 +13248,7 @@
       <c r="N89" s="14"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="26"/>
       <c r="B90" s="5"/>
       <c r="C90" s="12"/>
@@ -12659,7 +13265,7 @@
       <c r="N90" s="14"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="26"/>
       <c r="B91" s="5"/>
       <c r="C91" s="12"/>
@@ -12676,7 +13282,7 @@
       <c r="N91" s="14"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="26"/>
       <c r="B92" s="5"/>
       <c r="C92" s="12"/>
@@ -12693,7 +13299,7 @@
       <c r="N92" s="14"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="26"/>
       <c r="B93" s="5"/>
       <c r="C93" s="12"/>
@@ -12710,7 +13316,7 @@
       <c r="N93" s="14"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="26"/>
       <c r="B94" s="5"/>
       <c r="C94" s="12"/>
@@ -12727,7 +13333,7 @@
       <c r="N94" s="14"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="26"/>
       <c r="B95" s="5"/>
       <c r="C95" s="12"/>
@@ -12744,7 +13350,7 @@
       <c r="N95" s="14"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="26"/>
       <c r="B96" s="5"/>
       <c r="C96" s="12"/>
@@ -12761,7 +13367,7 @@
       <c r="N96" s="14"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="26"/>
       <c r="B97" s="5"/>
       <c r="C97" s="12"/>
@@ -12778,7 +13384,7 @@
       <c r="N97" s="14"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="26"/>
       <c r="B98" s="5"/>
       <c r="C98" s="12"/>
@@ -12795,7 +13401,7 @@
       <c r="N98" s="14"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="26"/>
       <c r="B99" s="5"/>
       <c r="C99" s="12"/>
@@ -12812,7 +13418,7 @@
       <c r="N99" s="14"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="26"/>
       <c r="B100" s="5"/>
       <c r="C100" s="12"/>
@@ -12829,7 +13435,7 @@
       <c r="N100" s="14"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="26"/>
       <c r="B101" s="5"/>
       <c r="C101" s="12"/>
@@ -12846,7 +13452,7 @@
       <c r="N101" s="14"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="26"/>
       <c r="B102" s="5"/>
       <c r="C102" s="12"/>
@@ -12863,7 +13469,7 @@
       <c r="N102" s="14"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="26"/>
       <c r="B103" s="5"/>
       <c r="C103" s="12"/>
@@ -12880,7 +13486,7 @@
       <c r="N103" s="14"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="26"/>
       <c r="B104" s="5"/>
       <c r="C104" s="12"/>
@@ -12897,7 +13503,7 @@
       <c r="N104" s="14"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="26"/>
       <c r="B105" s="5"/>
       <c r="C105" s="12"/>
@@ -12914,7 +13520,7 @@
       <c r="N105" s="14"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="26"/>
       <c r="B106" s="5"/>
       <c r="C106" s="12"/>
@@ -12931,7 +13537,7 @@
       <c r="N106" s="14"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="26"/>
       <c r="B107" s="5"/>
       <c r="C107" s="12"/>
@@ -12948,7 +13554,7 @@
       <c r="N107" s="14"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="26"/>
       <c r="B108" s="5"/>
       <c r="C108" s="12"/>
@@ -12965,7 +13571,7 @@
       <c r="N108" s="14"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="26"/>
       <c r="B109" s="5"/>
       <c r="C109" s="12"/>
@@ -12982,7 +13588,7 @@
       <c r="N109" s="14"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="26"/>
       <c r="B110" s="5"/>
       <c r="C110" s="12"/>
@@ -12999,7 +13605,7 @@
       <c r="N110" s="14"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="26"/>
       <c r="B111" s="5"/>
       <c r="C111" s="12"/>
@@ -13016,7 +13622,7 @@
       <c r="N111" s="14"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="26"/>
       <c r="B112" s="5"/>
       <c r="C112" s="12"/>
@@ -13033,7 +13639,7 @@
       <c r="N112" s="14"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="26"/>
       <c r="B113" s="5"/>
       <c r="C113" s="12"/>
@@ -13050,7 +13656,7 @@
       <c r="N113" s="14"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="26"/>
       <c r="B114" s="5"/>
       <c r="C114" s="12"/>
@@ -13067,7 +13673,7 @@
       <c r="N114" s="14"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="26"/>
       <c r="B115" s="5"/>
       <c r="C115" s="12"/>
@@ -13084,7 +13690,7 @@
       <c r="N115" s="14"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="26"/>
       <c r="B116" s="5"/>
       <c r="C116" s="12"/>
@@ -13101,7 +13707,7 @@
       <c r="N116" s="14"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="26"/>
       <c r="B117" s="5"/>
       <c r="C117" s="12"/>
@@ -13118,7 +13724,7 @@
       <c r="N117" s="14"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="26"/>
       <c r="B118" s="5"/>
       <c r="C118" s="12"/>
@@ -13135,7 +13741,7 @@
       <c r="N118" s="14"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="26"/>
       <c r="B119" s="5"/>
       <c r="C119" s="12"/>
@@ -13152,7 +13758,7 @@
       <c r="N119" s="14"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="26"/>
       <c r="B120" s="5"/>
       <c r="C120" s="12"/>
@@ -13169,7 +13775,7 @@
       <c r="N120" s="14"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="26"/>
       <c r="B121" s="5"/>
       <c r="C121" s="12"/>
@@ -13186,7 +13792,7 @@
       <c r="N121" s="14"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="5"/>
       <c r="C122" s="12"/>
@@ -13203,7 +13809,7 @@
       <c r="N122" s="14"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="26"/>
       <c r="B123" s="5"/>
       <c r="C123" s="12"/>
@@ -13220,7 +13826,7 @@
       <c r="N123" s="14"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="26"/>
       <c r="B124" s="5"/>
       <c r="C124" s="12"/>
@@ -13237,7 +13843,7 @@
       <c r="N124" s="14"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="26"/>
       <c r="B125" s="5"/>
       <c r="C125" s="12"/>
@@ -13254,7 +13860,7 @@
       <c r="N125" s="14"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="26"/>
       <c r="B126" s="5"/>
       <c r="C126" s="12"/>
@@ -13271,7 +13877,7 @@
       <c r="N126" s="14"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="26"/>
       <c r="B127" s="5"/>
       <c r="C127" s="12"/>
@@ -13288,7 +13894,7 @@
       <c r="N127" s="14"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="26"/>
       <c r="B128" s="5"/>
       <c r="C128" s="12"/>
@@ -13305,7 +13911,7 @@
       <c r="N128" s="14"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="26"/>
       <c r="B129" s="5"/>
       <c r="C129" s="12"/>
@@ -13322,7 +13928,7 @@
       <c r="N129" s="14"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="26"/>
       <c r="B130" s="5"/>
       <c r="C130" s="12"/>
@@ -13339,7 +13945,7 @@
       <c r="N130" s="14"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="26"/>
       <c r="B131" s="5"/>
       <c r="C131" s="12"/>
@@ -13356,7 +13962,7 @@
       <c r="N131" s="14"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="26"/>
       <c r="B132" s="5"/>
       <c r="C132" s="12"/>
@@ -13373,7 +13979,7 @@
       <c r="N132" s="14"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="26"/>
       <c r="B133" s="5"/>
       <c r="C133" s="12"/>
@@ -13390,7 +13996,7 @@
       <c r="N133" s="14"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="26"/>
       <c r="B134" s="5"/>
       <c r="C134" s="12"/>
@@ -13407,7 +14013,7 @@
       <c r="N134" s="14"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
       <c r="B135" s="5"/>
       <c r="C135" s="12"/>
@@ -13424,7 +14030,7 @@
       <c r="N135" s="14"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="26"/>
       <c r="B136" s="5"/>
       <c r="C136" s="12"/>
@@ -13441,7 +14047,7 @@
       <c r="N136" s="14"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="26"/>
       <c r="B137" s="5"/>
       <c r="C137" s="12"/>
@@ -13458,7 +14064,7 @@
       <c r="N137" s="14"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="26"/>
       <c r="B138" s="5"/>
       <c r="C138" s="12"/>
@@ -13475,7 +14081,7 @@
       <c r="N138" s="14"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="26"/>
       <c r="B139" s="5"/>
       <c r="C139" s="12"/>
@@ -13492,7 +14098,7 @@
       <c r="N139" s="14"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="26"/>
       <c r="B140" s="5"/>
       <c r="C140" s="12"/>
@@ -13509,7 +14115,7 @@
       <c r="N140" s="14"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="26"/>
       <c r="B141" s="5"/>
       <c r="C141" s="12"/>
@@ -13526,7 +14132,7 @@
       <c r="N141" s="14"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="26"/>
       <c r="B142" s="5"/>
       <c r="C142" s="12"/>
@@ -13543,7 +14149,7 @@
       <c r="N142" s="14"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="26"/>
       <c r="B143" s="5"/>
       <c r="C143" s="12"/>
@@ -13560,7 +14166,7 @@
       <c r="N143" s="14"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="26"/>
       <c r="B144" s="5"/>
       <c r="C144" s="12"/>
@@ -13577,7 +14183,7 @@
       <c r="N144" s="14"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="26"/>
       <c r="B145" s="5"/>
       <c r="C145" s="12"/>
@@ -13594,7 +14200,7 @@
       <c r="N145" s="14"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="26"/>
       <c r="B146" s="5"/>
       <c r="C146" s="12"/>
@@ -13611,7 +14217,7 @@
       <c r="N146" s="14"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="26"/>
       <c r="B147" s="5"/>
       <c r="C147" s="12"/>
@@ -13628,7 +14234,7 @@
       <c r="N147" s="14"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="26"/>
       <c r="B148" s="5"/>
       <c r="C148" s="12"/>
@@ -13645,7 +14251,7 @@
       <c r="N148" s="14"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="26"/>
       <c r="B149" s="5"/>
       <c r="C149" s="12"/>
@@ -13662,7 +14268,7 @@
       <c r="N149" s="14"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="26"/>
       <c r="B150" s="5"/>
       <c r="C150" s="12"/>
@@ -13679,7 +14285,7 @@
       <c r="N150" s="14"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="26"/>
       <c r="B151" s="5"/>
       <c r="C151" s="12"/>
@@ -13696,7 +14302,7 @@
       <c r="N151" s="14"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="26"/>
       <c r="B152" s="5"/>
       <c r="C152" s="12"/>
@@ -13713,7 +14319,7 @@
       <c r="N152" s="14"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="26"/>
       <c r="B153" s="5"/>
       <c r="C153" s="12"/>
@@ -13730,7 +14336,7 @@
       <c r="N153" s="14"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="26"/>
       <c r="B154" s="5"/>
       <c r="C154" s="12"/>
@@ -13747,7 +14353,7 @@
       <c r="N154" s="14"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="26"/>
       <c r="B155" s="5"/>
       <c r="C155" s="12"/>
@@ -13764,7 +14370,7 @@
       <c r="N155" s="14"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="26"/>
       <c r="B156" s="5"/>
       <c r="C156" s="12"/>
@@ -13781,7 +14387,7 @@
       <c r="N156" s="14"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="26"/>
       <c r="B157" s="5"/>
       <c r="C157" s="12"/>
@@ -13798,7 +14404,7 @@
       <c r="N157" s="14"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="26"/>
       <c r="B158" s="5"/>
       <c r="C158" s="12"/>
@@ -13815,7 +14421,7 @@
       <c r="N158" s="14"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="26"/>
       <c r="B159" s="5"/>
       <c r="C159" s="12"/>
@@ -13832,7 +14438,7 @@
       <c r="N159" s="14"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="26"/>
       <c r="B160" s="5"/>
       <c r="C160" s="12"/>
@@ -13849,7 +14455,7 @@
       <c r="N160" s="14"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="26"/>
       <c r="B161" s="5"/>
       <c r="C161" s="12"/>
@@ -13866,7 +14472,7 @@
       <c r="N161" s="14"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="26"/>
       <c r="B162" s="5"/>
       <c r="C162" s="12"/>
@@ -13883,7 +14489,7 @@
       <c r="N162" s="14"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="26"/>
       <c r="B163" s="5"/>
       <c r="C163" s="12"/>
@@ -13900,7 +14506,7 @@
       <c r="N163" s="14"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="26"/>
       <c r="B164" s="5"/>
       <c r="C164" s="12"/>
@@ -13917,7 +14523,7 @@
       <c r="N164" s="14"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="26"/>
       <c r="B165" s="5"/>
       <c r="C165" s="12"/>
@@ -13934,7 +14540,7 @@
       <c r="N165" s="14"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="26"/>
       <c r="B166" s="5"/>
       <c r="C166" s="12"/>
@@ -13951,7 +14557,7 @@
       <c r="N166" s="14"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="26"/>
       <c r="B167" s="5"/>
       <c r="C167" s="12"/>
@@ -13968,7 +14574,7 @@
       <c r="N167" s="14"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="26"/>
       <c r="B168" s="5"/>
       <c r="C168" s="12"/>
@@ -13985,7 +14591,7 @@
       <c r="N168" s="14"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="26"/>
       <c r="B169" s="5"/>
       <c r="C169" s="12"/>
@@ -14002,7 +14608,7 @@
       <c r="N169" s="14"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="26"/>
       <c r="B170" s="5"/>
       <c r="C170" s="12"/>
@@ -14019,7 +14625,7 @@
       <c r="N170" s="14"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="26"/>
       <c r="B171" s="5"/>
       <c r="C171" s="12"/>
@@ -14036,7 +14642,7 @@
       <c r="N171" s="14"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="26"/>
       <c r="B172" s="5"/>
       <c r="C172" s="12"/>
@@ -14053,7 +14659,7 @@
       <c r="N172" s="14"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="26"/>
       <c r="B173" s="5"/>
       <c r="C173" s="12"/>
@@ -14070,7 +14676,7 @@
       <c r="N173" s="14"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="26"/>
       <c r="B174" s="5"/>
       <c r="C174" s="12"/>
@@ -14087,7 +14693,7 @@
       <c r="N174" s="14"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="26"/>
       <c r="B175" s="5"/>
       <c r="C175" s="12"/>
@@ -14104,7 +14710,7 @@
       <c r="N175" s="14"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="26"/>
       <c r="B176" s="5"/>
       <c r="C176" s="12"/>
@@ -14121,7 +14727,7 @@
       <c r="N176" s="14"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="26"/>
       <c r="B177" s="5"/>
       <c r="C177" s="12"/>
@@ -14138,7 +14744,7 @@
       <c r="N177" s="14"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="26"/>
       <c r="B178" s="5"/>
       <c r="C178" s="12"/>
@@ -14155,7 +14761,7 @@
       <c r="N178" s="14"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="26"/>
       <c r="B179" s="5"/>
       <c r="C179" s="12"/>
@@ -14172,7 +14778,7 @@
       <c r="N179" s="14"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="26"/>
       <c r="B180" s="5"/>
       <c r="C180" s="12"/>
@@ -14189,7 +14795,7 @@
       <c r="N180" s="14"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="26"/>
       <c r="B181" s="5"/>
       <c r="C181" s="12"/>
@@ -14206,7 +14812,7 @@
       <c r="N181" s="14"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="26"/>
       <c r="B182" s="5"/>
       <c r="C182" s="12"/>
@@ -14223,7 +14829,7 @@
       <c r="N182" s="14"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="26"/>
       <c r="B183" s="5"/>
       <c r="C183" s="12"/>
@@ -14240,7 +14846,7 @@
       <c r="N183" s="14"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="26"/>
       <c r="B184" s="5"/>
       <c r="C184" s="12"/>
@@ -14257,7 +14863,7 @@
       <c r="N184" s="14"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="26"/>
       <c r="B185" s="5"/>
       <c r="C185" s="12"/>
@@ -14274,7 +14880,7 @@
       <c r="N185" s="14"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="26"/>
       <c r="B186" s="5"/>
       <c r="C186" s="12"/>
@@ -14291,7 +14897,7 @@
       <c r="N186" s="14"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="26"/>
       <c r="B187" s="5"/>
       <c r="C187" s="12"/>
@@ -14308,7 +14914,7 @@
       <c r="N187" s="14"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="26"/>
       <c r="B188" s="5"/>
       <c r="C188" s="12"/>
@@ -14325,7 +14931,7 @@
       <c r="N188" s="14"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="26"/>
       <c r="B189" s="5"/>
       <c r="C189" s="12"/>
@@ -14342,7 +14948,7 @@
       <c r="N189" s="14"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="26"/>
       <c r="B190" s="5"/>
       <c r="C190" s="12"/>
@@ -14359,7 +14965,7 @@
       <c r="N190" s="14"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="26"/>
       <c r="B191" s="5"/>
       <c r="C191" s="12"/>
@@ -14376,7 +14982,7 @@
       <c r="N191" s="14"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="26"/>
       <c r="B192" s="5"/>
       <c r="C192" s="12"/>
@@ -14393,7 +14999,7 @@
       <c r="N192" s="14"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="26"/>
       <c r="B193" s="5"/>
       <c r="C193" s="12"/>
@@ -14410,7 +15016,7 @@
       <c r="N193" s="14"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="26"/>
       <c r="B194" s="5"/>
       <c r="C194" s="12"/>
@@ -14427,7 +15033,7 @@
       <c r="N194" s="14"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="26"/>
       <c r="B195" s="5"/>
       <c r="C195" s="12"/>
@@ -14444,7 +15050,7 @@
       <c r="N195" s="14"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="26"/>
       <c r="B196" s="5"/>
       <c r="C196" s="12"/>
@@ -14461,7 +15067,7 @@
       <c r="N196" s="14"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="26"/>
       <c r="B197" s="5"/>
       <c r="C197" s="12"/>
@@ -14478,7 +15084,7 @@
       <c r="N197" s="14"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="26"/>
       <c r="B198" s="5"/>
       <c r="C198" s="12"/>
@@ -14495,7 +15101,7 @@
       <c r="N198" s="14"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="26"/>
       <c r="B199" s="5"/>
       <c r="C199" s="12"/>
@@ -14512,7 +15118,7 @@
       <c r="N199" s="14"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="26"/>
       <c r="B200" s="5"/>
       <c r="C200" s="12"/>
@@ -14529,7 +15135,7 @@
       <c r="N200" s="14"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="26"/>
       <c r="B201" s="5"/>
       <c r="C201" s="12"/>
@@ -14546,7 +15152,7 @@
       <c r="N201" s="14"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="26"/>
       <c r="B202" s="5"/>
       <c r="C202" s="12"/>
@@ -14563,7 +15169,7 @@
       <c r="N202" s="14"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="26"/>
       <c r="B203" s="5"/>
       <c r="C203" s="12"/>
@@ -14580,7 +15186,7 @@
       <c r="N203" s="14"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="26"/>
       <c r="B204" s="5"/>
       <c r="C204" s="12"/>
@@ -14597,7 +15203,7 @@
       <c r="N204" s="14"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="26"/>
       <c r="B205" s="5"/>
       <c r="C205" s="12"/>
@@ -14614,7 +15220,7 @@
       <c r="N205" s="14"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="26"/>
       <c r="B206" s="5"/>
       <c r="C206" s="12"/>
@@ -14631,7 +15237,7 @@
       <c r="N206" s="14"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="26"/>
       <c r="B207" s="5"/>
       <c r="C207" s="12"/>
@@ -14648,7 +15254,7 @@
       <c r="N207" s="14"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="26"/>
       <c r="B208" s="5"/>
       <c r="C208" s="12"/>
@@ -14665,7 +15271,7 @@
       <c r="N208" s="14"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="26"/>
       <c r="B209" s="5"/>
       <c r="C209" s="12"/>
@@ -14682,7 +15288,7 @@
       <c r="N209" s="14"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="26"/>
       <c r="B210" s="5"/>
       <c r="C210" s="12"/>
@@ -14699,7 +15305,7 @@
       <c r="N210" s="14"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="26"/>
       <c r="B211" s="5"/>
       <c r="C211" s="12"/>
@@ -14716,7 +15322,7 @@
       <c r="N211" s="14"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="26"/>
       <c r="B212" s="5"/>
       <c r="C212" s="12"/>
@@ -14733,7 +15339,7 @@
       <c r="N212" s="14"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="26"/>
       <c r="B213" s="5"/>
       <c r="C213" s="12"/>
@@ -14750,7 +15356,7 @@
       <c r="N213" s="14"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="26"/>
       <c r="B214" s="5"/>
       <c r="C214" s="12"/>
@@ -14767,7 +15373,7 @@
       <c r="N214" s="14"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="26"/>
       <c r="B215" s="5"/>
       <c r="C215" s="12"/>
@@ -14784,7 +15390,7 @@
       <c r="N215" s="14"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="26"/>
       <c r="B216" s="5"/>
       <c r="C216" s="12"/>
@@ -14801,7 +15407,7 @@
       <c r="N216" s="14"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="26"/>
       <c r="B217" s="5"/>
       <c r="C217" s="12"/>
@@ -14818,7 +15424,7 @@
       <c r="N217" s="14"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="26"/>
       <c r="B218" s="5"/>
       <c r="C218" s="12"/>
@@ -14835,7 +15441,7 @@
       <c r="N218" s="14"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="26"/>
       <c r="B219" s="5"/>
       <c r="C219" s="12"/>
@@ -14852,7 +15458,7 @@
       <c r="N219" s="14"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="26"/>
       <c r="B220" s="5"/>
       <c r="C220" s="12"/>
@@ -14869,7 +15475,7 @@
       <c r="N220" s="14"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="26"/>
       <c r="B221" s="5"/>
       <c r="C221" s="12"/>
@@ -14886,7 +15492,7 @@
       <c r="N221" s="14"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="26"/>
       <c r="B222" s="5"/>
       <c r="C222" s="12"/>
@@ -14903,7 +15509,7 @@
       <c r="N222" s="14"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="26"/>
       <c r="B223" s="5"/>
       <c r="C223" s="12"/>
@@ -14920,7 +15526,7 @@
       <c r="N223" s="14"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="26"/>
       <c r="B224" s="5"/>
       <c r="C224" s="12"/>
@@ -14937,7 +15543,7 @@
       <c r="N224" s="14"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="26"/>
       <c r="B225" s="5"/>
       <c r="C225" s="12"/>
@@ -14954,7 +15560,7 @@
       <c r="N225" s="14"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="26"/>
       <c r="B226" s="5"/>
       <c r="C226" s="12"/>
@@ -14971,7 +15577,7 @@
       <c r="N226" s="14"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="26"/>
       <c r="B227" s="5"/>
       <c r="C227" s="12"/>
@@ -14988,7 +15594,7 @@
       <c r="N227" s="14"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="26"/>
       <c r="B228" s="5"/>
       <c r="C228" s="12"/>
@@ -15005,7 +15611,7 @@
       <c r="N228" s="14"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="26"/>
       <c r="B229" s="5"/>
       <c r="C229" s="12"/>
@@ -15022,7 +15628,7 @@
       <c r="N229" s="14"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="26"/>
       <c r="B230" s="5"/>
       <c r="C230" s="12"/>
@@ -15039,7 +15645,7 @@
       <c r="N230" s="14"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="26"/>
       <c r="B231" s="5"/>
       <c r="C231" s="12"/>
@@ -15056,7 +15662,7 @@
       <c r="N231" s="14"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="26"/>
       <c r="B232" s="5"/>
       <c r="C232" s="12"/>
@@ -15073,7 +15679,7 @@
       <c r="N232" s="14"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="26"/>
       <c r="B233" s="5"/>
       <c r="C233" s="12"/>
@@ -15090,7 +15696,7 @@
       <c r="N233" s="14"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="26"/>
       <c r="B234" s="5"/>
       <c r="C234" s="12"/>
@@ -15107,7 +15713,7 @@
       <c r="N234" s="14"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="26"/>
       <c r="B235" s="5"/>
       <c r="C235" s="12"/>
@@ -15124,7 +15730,7 @@
       <c r="N235" s="14"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="26"/>
       <c r="B236" s="5"/>
       <c r="C236" s="12"/>
@@ -15141,7 +15747,7 @@
       <c r="N236" s="14"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="26"/>
       <c r="B237" s="5"/>
       <c r="C237" s="12"/>
@@ -15158,7 +15764,7 @@
       <c r="N237" s="14"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="26"/>
       <c r="B238" s="5"/>
       <c r="C238" s="12"/>
@@ -15175,7 +15781,7 @@
       <c r="N238" s="14"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="26"/>
       <c r="B239" s="5"/>
       <c r="C239" s="12"/>
@@ -15192,7 +15798,7 @@
       <c r="N239" s="14"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="26"/>
       <c r="B240" s="5"/>
       <c r="C240" s="12"/>
@@ -15209,7 +15815,7 @@
       <c r="N240" s="14"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="26"/>
       <c r="B241" s="5"/>
       <c r="C241" s="12"/>
@@ -15226,7 +15832,7 @@
       <c r="N241" s="14"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="26"/>
       <c r="B242" s="5"/>
       <c r="C242" s="12"/>
@@ -15243,7 +15849,7 @@
       <c r="N242" s="14"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="26"/>
       <c r="B243" s="5"/>
       <c r="C243" s="12"/>
@@ -15260,7 +15866,7 @@
       <c r="N243" s="14"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="26"/>
       <c r="B244" s="5"/>
       <c r="C244" s="12"/>
@@ -15277,7 +15883,7 @@
       <c r="N244" s="14"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="26"/>
       <c r="B245" s="5"/>
       <c r="C245" s="12"/>
@@ -15294,7 +15900,7 @@
       <c r="N245" s="14"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="26"/>
       <c r="B246" s="5"/>
       <c r="C246" s="12"/>
@@ -15311,7 +15917,7 @@
       <c r="N246" s="14"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="26"/>
       <c r="B247" s="5"/>
       <c r="C247" s="12"/>
@@ -15328,7 +15934,7 @@
       <c r="N247" s="14"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="26"/>
       <c r="B248" s="5"/>
       <c r="C248" s="12"/>
@@ -15345,7 +15951,7 @@
       <c r="N248" s="14"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="26"/>
       <c r="B249" s="5"/>
       <c r="C249" s="12"/>
@@ -15362,7 +15968,7 @@
       <c r="N249" s="14"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="26"/>
       <c r="B250" s="5"/>
       <c r="C250" s="12"/>
@@ -15379,7 +15985,7 @@
       <c r="N250" s="14"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="26"/>
       <c r="B251" s="5"/>
       <c r="C251" s="12"/>
@@ -15396,7 +16002,7 @@
       <c r="N251" s="14"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="26"/>
       <c r="B252" s="5"/>
       <c r="C252" s="12"/>
@@ -15413,7 +16019,7 @@
       <c r="N252" s="14"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="26"/>
       <c r="B253" s="5"/>
       <c r="C253" s="12"/>
@@ -15430,7 +16036,7 @@
       <c r="N253" s="14"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="26"/>
       <c r="B254" s="5"/>
       <c r="C254" s="12"/>
@@ -15447,7 +16053,7 @@
       <c r="N254" s="14"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="26"/>
       <c r="B255" s="5"/>
       <c r="C255" s="12"/>
@@ -15464,7 +16070,7 @@
       <c r="N255" s="14"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="26"/>
       <c r="B256" s="5"/>
       <c r="C256" s="12"/>
@@ -15481,7 +16087,7 @@
       <c r="N256" s="14"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="26"/>
       <c r="B257" s="5"/>
       <c r="C257" s="12"/>
@@ -15498,7 +16104,7 @@
       <c r="N257" s="14"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="26"/>
       <c r="B258" s="5"/>
       <c r="C258" s="12"/>
@@ -15515,7 +16121,7 @@
       <c r="N258" s="14"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="26"/>
       <c r="B259" s="5"/>
       <c r="C259" s="12"/>
@@ -15532,7 +16138,7 @@
       <c r="N259" s="14"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="26"/>
       <c r="B260" s="5"/>
       <c r="C260" s="12"/>
@@ -15549,7 +16155,7 @@
       <c r="N260" s="14"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="26"/>
       <c r="B261" s="5"/>
       <c r="C261" s="12"/>
@@ -15566,7 +16172,7 @@
       <c r="N261" s="14"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="26"/>
       <c r="B262" s="5"/>
       <c r="C262" s="12"/>
@@ -15583,7 +16189,7 @@
       <c r="N262" s="14"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="26"/>
       <c r="B263" s="5"/>
       <c r="C263" s="12"/>
@@ -15600,7 +16206,7 @@
       <c r="N263" s="14"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="26"/>
       <c r="B264" s="5"/>
       <c r="C264" s="12"/>
@@ -15617,7 +16223,7 @@
       <c r="N264" s="14"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="26"/>
       <c r="B265" s="5"/>
       <c r="C265" s="12"/>
@@ -15634,7 +16240,7 @@
       <c r="N265" s="14"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="26"/>
       <c r="B266" s="5"/>
       <c r="C266" s="12"/>
@@ -15651,7 +16257,7 @@
       <c r="N266" s="14"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="26"/>
       <c r="B267" s="5"/>
       <c r="C267" s="12"/>
@@ -15668,7 +16274,7 @@
       <c r="N267" s="14"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="26"/>
       <c r="B268" s="5"/>
       <c r="C268" s="12"/>
@@ -15685,7 +16291,7 @@
       <c r="N268" s="14"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="26"/>
       <c r="B269" s="5"/>
       <c r="C269" s="12"/>
@@ -15702,7 +16308,7 @@
       <c r="N269" s="14"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="26"/>
       <c r="B270" s="5"/>
       <c r="C270" s="12"/>
@@ -15719,7 +16325,7 @@
       <c r="N270" s="14"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="26"/>
       <c r="B271" s="5"/>
       <c r="C271" s="12"/>
@@ -15736,7 +16342,7 @@
       <c r="N271" s="14"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272" s="26"/>
       <c r="B272" s="5"/>
       <c r="C272" s="12"/>
@@ -15753,7 +16359,7 @@
       <c r="N272" s="14"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="26"/>
       <c r="B273" s="5"/>
       <c r="C273" s="12"/>
@@ -15770,7 +16376,7 @@
       <c r="N273" s="14"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="26"/>
       <c r="B274" s="5"/>
       <c r="C274" s="12"/>
@@ -15787,7 +16393,7 @@
       <c r="N274" s="14"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275" s="26"/>
       <c r="B275" s="5"/>
       <c r="C275" s="12"/>
@@ -15804,7 +16410,7 @@
       <c r="N275" s="14"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="26"/>
       <c r="B276" s="5"/>
       <c r="C276" s="12"/>
@@ -15821,7 +16427,7 @@
       <c r="N276" s="14"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277" s="26"/>
       <c r="B277" s="5"/>
       <c r="C277" s="12"/>
@@ -15838,7 +16444,7 @@
       <c r="N277" s="14"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278" s="26"/>
       <c r="B278" s="5"/>
       <c r="C278" s="12"/>
@@ -15855,7 +16461,7 @@
       <c r="N278" s="14"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279" s="26"/>
       <c r="B279" s="5"/>
       <c r="C279" s="12"/>
@@ -15872,7 +16478,7 @@
       <c r="N279" s="14"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280" s="26"/>
       <c r="B280" s="5"/>
       <c r="C280" s="12"/>
@@ -15889,7 +16495,7 @@
       <c r="N280" s="14"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281" s="26"/>
       <c r="B281" s="5"/>
       <c r="C281" s="12"/>
@@ -15906,7 +16512,7 @@
       <c r="N281" s="14"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282" s="26"/>
       <c r="B282" s="5"/>
       <c r="C282" s="12"/>
@@ -15923,7 +16529,7 @@
       <c r="N282" s="14"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283" s="26"/>
       <c r="B283" s="5"/>
       <c r="C283" s="12"/>
@@ -15940,7 +16546,7 @@
       <c r="N283" s="14"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284" s="26"/>
       <c r="B284" s="5"/>
       <c r="C284" s="12"/>
@@ -15957,7 +16563,7 @@
       <c r="N284" s="14"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285" s="26"/>
       <c r="B285" s="5"/>
       <c r="C285" s="12"/>
@@ -15974,7 +16580,7 @@
       <c r="N285" s="14"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286" s="26"/>
       <c r="B286" s="5"/>
       <c r="C286" s="12"/>
@@ -15991,7 +16597,7 @@
       <c r="N286" s="14"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287" s="26"/>
       <c r="B287" s="5"/>
       <c r="C287" s="12"/>
@@ -16008,7 +16614,7 @@
       <c r="N287" s="14"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288" s="26"/>
       <c r="B288" s="5"/>
       <c r="C288" s="12"/>
@@ -16025,7 +16631,7 @@
       <c r="N288" s="14"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289" s="26"/>
       <c r="B289" s="5"/>
       <c r="C289" s="12"/>
@@ -16042,7 +16648,7 @@
       <c r="N289" s="14"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290" s="26"/>
       <c r="B290" s="5"/>
       <c r="C290" s="12"/>
@@ -16059,7 +16665,7 @@
       <c r="N290" s="14"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291" s="26"/>
       <c r="B291" s="5"/>
       <c r="C291" s="12"/>
@@ -16076,7 +16682,7 @@
       <c r="N291" s="14"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292" s="26"/>
       <c r="B292" s="5"/>
       <c r="C292" s="12"/>
@@ -16093,7 +16699,7 @@
       <c r="N292" s="14"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293" s="26"/>
       <c r="B293" s="5"/>
       <c r="C293" s="12"/>
@@ -16110,7 +16716,7 @@
       <c r="N293" s="14"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294" s="26"/>
       <c r="B294" s="5"/>
       <c r="C294" s="12"/>
@@ -16127,7 +16733,7 @@
       <c r="N294" s="14"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295" s="26"/>
       <c r="B295" s="5"/>
       <c r="C295" s="12"/>
@@ -16144,7 +16750,7 @@
       <c r="N295" s="14"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296" s="26"/>
       <c r="B296" s="5"/>
       <c r="C296" s="12"/>
@@ -16161,7 +16767,7 @@
       <c r="N296" s="14"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297" s="26"/>
       <c r="B297" s="5"/>
       <c r="C297" s="12"/>
@@ -16179,7 +16785,7 @@
       <c r="O297" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -16187,35 +16793,35 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N298:N1048576 N3:N97">
-    <cfRule type="beginsWith" dxfId="5" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="10" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N98:N297">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N98,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N98,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N98,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C297" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C297" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D297" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D297" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>